--- a/БАРС/Баллы_431.xlsx
+++ b/БАРС/Баллы_431.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>431 группа</t>
   </si>
@@ -143,6 +143,81 @@
   </si>
   <si>
     <t>Количество 2:</t>
+  </si>
+  <si>
+    <t>Алексеев Александр Александрович</t>
+  </si>
+  <si>
+    <t>Арбузов Матвей Александрович</t>
+  </si>
+  <si>
+    <t>Бородин Артём Горович</t>
+  </si>
+  <si>
+    <t>Гельфанов Даниил Русланович</t>
+  </si>
+  <si>
+    <t>Гендляр Сергей Максимович</t>
+  </si>
+  <si>
+    <t>Грицков Данил Владимирович </t>
+  </si>
+  <si>
+    <t>Гущин Андрей Юрьевич</t>
+  </si>
+  <si>
+    <t>Ерофеева Дарья Дмитриевна</t>
+  </si>
+  <si>
+    <t>Зимина Ирина Олеговна</t>
+  </si>
+  <si>
+    <t>Никитин Арсений Владимирович</t>
+  </si>
+  <si>
+    <t>Нориков Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>Окуньков Сергей Викторович</t>
+  </si>
+  <si>
+    <t>Серебряков Алексей Владимирович</t>
+  </si>
+  <si>
+    <t>Стаин Роман Игоревич</t>
+  </si>
+  <si>
+    <t>Стыценкова Валерия Сергеевна</t>
+  </si>
+  <si>
+    <t>Суслин Дмитрий Константинович</t>
+  </si>
+  <si>
+    <t>Таранов Алексей Вадимович </t>
+  </si>
+  <si>
+    <t>Токарев Никита Сергеевич</t>
+  </si>
+  <si>
+    <t>Улитин Иван Владимирович</t>
+  </si>
+  <si>
+    <t>Хрисанфов Алексей Александрович</t>
+  </si>
+  <si>
+    <t>Хуторный Сергей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Чернышова Надежда Викторовна</t>
+  </si>
+  <si>
+    <t>Шуликина Анастасия Александровна</t>
+  </si>
+  <si>
+    <t>Шульдяков Александр Андреевич</t>
+  </si>
+  <si>
+    <t>Яхин Шамиль Илдусович</t>
   </si>
 </sst>
 </file>
@@ -328,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -409,6 +484,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -421,11 +502,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +761,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A4:V28" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26" headerRowCellStyle="Обычный" dataCellStyle="Обычный">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A4:V30" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26" headerRowCellStyle="Обычный" dataCellStyle="Обычный">
   <tableColumns count="22">
     <tableColumn id="1" name="ФИО" dataDxfId="25" dataCellStyle="Обычный"/>
     <tableColumn id="2" name="Лекции" dataDxfId="24" dataCellStyle="Обычный"/>
@@ -688,16 +772,16 @@
     <tableColumn id="23" name="Работа на занятиях" dataDxfId="19"/>
     <tableColumn id="6" name="Отчет" dataDxfId="18" dataCellStyle="Обычный"/>
     <tableColumn id="7" name="Лекции (б)" dataDxfId="17" dataCellStyle="Обычный">
-      <calculatedColumnFormula>ROUND(B5/$B$30*$B$32,0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND(B5/$B$33*$B$35,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name=" Лабораторные (б)" dataDxfId="16" dataCellStyle="Обычный">
-      <calculatedColumnFormula>C5*$B$33</calculatedColumnFormula>
+      <calculatedColumnFormula>C5*$B$36</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Самостоятельная работа (б)" dataDxfId="15" dataCellStyle="Обычный">
-      <calculatedColumnFormula>D5*$B$34</calculatedColumnFormula>
+      <calculatedColumnFormula>D5*$B$37</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Другие виды уч.  деятельности (б)" dataDxfId="14" dataCellStyle="Обычный">
-      <calculatedColumnFormula>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H5*$B$35</calculatedColumnFormula>
+      <calculatedColumnFormula>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H5*$B$38</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="Промежуточная аттестация (б)" dataDxfId="13" dataCellStyle="Обычный">
       <calculatedColumnFormula>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</calculatedColumnFormula>
@@ -721,8 +805,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A41:C45" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="A41:C45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A44:C48" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="A44:C48"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Оценка" dataDxfId="2"/>
     <tableColumn id="2" name="от" dataDxfId="1"/>
@@ -1019,15 +1103,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="13" width="16.44140625" customWidth="1"/>
     <col min="14" max="21" width="13.77734375" customWidth="1"/>
@@ -1040,50 +1124,50 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="A2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33" t="s">
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
       <c r="U3" s="7"/>
       <c r="V3" s="10"/>
     </row>
@@ -1156,7 +1240,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="39" t="s">
+        <v>43</v>
+      </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1165,19 +1251,19 @@
       <c r="G5" s="26"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11">
-        <f>ROUND(B5/$B$30*$B$32,0)</f>
+        <f>ROUND(B5/$B$33*$B$35,0)</f>
         <v>0</v>
       </c>
       <c r="J5" s="11">
-        <f>C5*$B$33</f>
+        <f>C5*$B$36</f>
         <v>0</v>
       </c>
       <c r="K5" s="11">
-        <f>D5*$B$34</f>
+        <f>D5*$B$37</f>
         <v>0</v>
       </c>
       <c r="L5" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H5*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H5*$B$38</f>
         <v>0</v>
       </c>
       <c r="M5" s="11">
@@ -1201,7 +1287,9 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="39" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1210,19 +1298,19 @@
       <c r="G6" s="26"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11">
-        <f>ROUND(B6/$B$30*$B$32,0)</f>
+        <f>ROUND(B6/$B$33*$B$35,0)</f>
         <v>0</v>
       </c>
       <c r="J6" s="11">
-        <f>C6*$B$33</f>
+        <f>C6*$B$36</f>
         <v>0</v>
       </c>
       <c r="K6" s="11">
-        <f>D6*$B$34</f>
+        <f>D6*$B$37</f>
         <v>0</v>
       </c>
       <c r="L6" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H6*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H6*$B$38</f>
         <v>0</v>
       </c>
       <c r="M6" s="11">
@@ -1230,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" ref="N6:N28" si="0">ROUND(SUM(I6:M6),0)</f>
+        <f t="shared" ref="N6:N30" si="0">ROUND(SUM(I6:M6),0)</f>
         <v>0</v>
       </c>
       <c r="O6" s="11"/>
@@ -1246,7 +1334,9 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1255,19 +1345,19 @@
       <c r="G7" s="26"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11">
-        <f>ROUND(B7/$B$30*$B$32,0)</f>
+        <f>ROUND(B7/$B$33*$B$35,0)</f>
         <v>0</v>
       </c>
       <c r="J7" s="11">
-        <f>C7*$B$33</f>
+        <f>C7*$B$36</f>
         <v>0</v>
       </c>
       <c r="K7" s="11">
-        <f>D7*$B$34</f>
+        <f>D7*$B$37</f>
         <v>0</v>
       </c>
       <c r="L7" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H7*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H7*$B$38</f>
         <v>0</v>
       </c>
       <c r="M7" s="11">
@@ -1291,7 +1381,9 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="39" t="s">
+        <v>46</v>
+      </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -1300,19 +1392,19 @@
       <c r="G8" s="26"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22">
-        <f t="shared" ref="I8:I20" si="1">ROUND(B8/$B$30*$B$32,0)</f>
+        <f t="shared" ref="I8:I20" si="1">ROUND(B8/$B$33*$B$35,0)</f>
         <v>0</v>
       </c>
       <c r="J8" s="22">
-        <f t="shared" ref="J8:J20" si="2">C8*$B$33</f>
+        <f t="shared" ref="J8:J20" si="2">C8*$B$36</f>
         <v>0</v>
       </c>
       <c r="K8" s="22">
-        <f t="shared" ref="K8:K20" si="3">D8*$B$34</f>
+        <f t="shared" ref="K8:K20" si="3">D8*$B$37</f>
         <v>0</v>
       </c>
       <c r="L8" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H8*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H8*$B$38</f>
         <v>0</v>
       </c>
       <c r="M8" s="23">
@@ -1336,7 +1428,9 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="39" t="s">
+        <v>47</v>
+      </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -1357,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H9*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H9*$B$38</f>
         <v>0</v>
       </c>
       <c r="M9" s="23">
@@ -1381,7 +1475,9 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="39" t="s">
+        <v>48</v>
+      </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -1402,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H10*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H10*$B$38</f>
         <v>0</v>
       </c>
       <c r="M10" s="23">
@@ -1426,7 +1522,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="39" t="s">
+        <v>49</v>
+      </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -1447,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H11*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H11*$B$38</f>
         <v>0</v>
       </c>
       <c r="M11" s="23">
@@ -1471,7 +1569,9 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="39" t="s">
+        <v>50</v>
+      </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -1492,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H12*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H12*$B$38</f>
         <v>0</v>
       </c>
       <c r="M12" s="23">
@@ -1516,7 +1616,9 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -1537,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H13*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H13*$B$38</f>
         <v>0</v>
       </c>
       <c r="M13" s="23">
@@ -1561,7 +1663,9 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -1582,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H14*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H14*$B$38</f>
         <v>0</v>
       </c>
       <c r="M14" s="23">
@@ -1606,7 +1710,9 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="39" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -1627,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H15*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H15*$B$38</f>
         <v>0</v>
       </c>
       <c r="M15" s="23">
@@ -1651,7 +1757,9 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -1672,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H16*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H16*$B$38</f>
         <v>0</v>
       </c>
       <c r="M16" s="23">
@@ -1696,7 +1804,9 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -1717,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H17*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H17*$B$38</f>
         <v>0</v>
       </c>
       <c r="M17" s="23">
@@ -1741,7 +1851,9 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -1762,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H18*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H18*$B$38</f>
         <v>0</v>
       </c>
       <c r="M18" s="23">
@@ -1786,7 +1898,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -1807,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H19*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H19*$B$38</f>
         <v>0</v>
       </c>
       <c r="M19" s="23">
@@ -1831,7 +1945,9 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -1852,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H20*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H20*$B$38</f>
         <v>0</v>
       </c>
       <c r="M20" s="23">
@@ -1876,7 +1992,9 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1885,19 +2003,19 @@
       <c r="G21" s="26"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11">
-        <f t="shared" ref="I21:I28" si="5">ROUND(B21/$B$30*$B$32,0)</f>
+        <f t="shared" ref="I21:I30" si="5">ROUND(B21/$B$33*$B$35,0)</f>
         <v>0</v>
       </c>
       <c r="J21" s="11">
-        <f t="shared" ref="J21:J28" si="6">C21*$B$33</f>
+        <f t="shared" ref="J21:J30" si="6">C21*$B$36</f>
         <v>0</v>
       </c>
       <c r="K21" s="11">
-        <f t="shared" ref="K21:K28" si="7">D21*$B$34</f>
+        <f t="shared" ref="K21:K30" si="7">D21*$B$37</f>
         <v>0</v>
       </c>
       <c r="L21" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H21*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H21*$B$38</f>
         <v>0</v>
       </c>
       <c r="M21" s="11">
@@ -1921,7 +2039,9 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1942,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H22*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H22*$B$38</f>
         <v>0</v>
       </c>
       <c r="M22" s="11">
@@ -1966,7 +2086,9 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1987,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H23*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H23*$B$38</f>
         <v>0</v>
       </c>
       <c r="M23" s="11">
@@ -2011,7 +2133,9 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2032,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H24*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H24*$B$38</f>
         <v>0</v>
       </c>
       <c r="M24" s="11">
@@ -2056,7 +2180,9 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2077,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H25*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H25*$B$38</f>
         <v>0</v>
       </c>
       <c r="M25" s="11">
@@ -2101,7 +2227,9 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="39" t="s">
+        <v>64</v>
+      </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2122,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H26*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H26*$B$38</f>
         <v>0</v>
       </c>
       <c r="M26" s="11">
@@ -2146,7 +2274,9 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2167,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H27*$B$35</f>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H27*$B$38</f>
         <v>0</v>
       </c>
       <c r="M27" s="11">
@@ -2191,240 +2321,358 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="A28" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$35+Таблица3[[#This Row],[Работа на занятиях]]*$D$35+ H28*$B$35</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="11">
+      <c r="H28" s="26"/>
+      <c r="I28" s="26">
+        <f>ROUND(B28/$B$33*$B$35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="26">
+        <f>C28*$B$36</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="26">
+        <f>D28*$B$37</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="38">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H28*$B$38</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="38">
         <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N28" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11">
+      <c r="N28" s="26">
+        <f>ROUND(SUM(I28:M28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
     </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26">
+        <f>ROUND(B29/$B$33*$B$35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="26">
+        <f>C29*$B$36</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="26">
+        <f>D29*$B$37</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="38">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H29*$B$38</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="38">
+        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="26">
+        <f>ROUND(SUM(I29:M29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26">
+        <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
+        <v>2</v>
+      </c>
+    </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H30*$B$38</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11">
+        <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B33" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="O31" s="36" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="O34" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="36"/>
-    </row>
-    <row r="32" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="28">
-        <v>10</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="O32" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="P32" s="29">
-        <f>COUNTIFS(Таблица3[Оценка],"=5")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="30">
-        <v>25</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="4"/>
-      <c r="O33" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="P33" s="29">
-        <f>COUNTIFS(Таблица3[Оценка],"=4")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="30">
-        <v>20</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="O34" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="P34" s="29">
-        <f>COUNTIFS(Таблица3[Оценка],"=3")</f>
-        <v>0</v>
-      </c>
+      <c r="P34" s="33"/>
     </row>
     <row r="35" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="30">
         <v>5</v>
       </c>
-      <c r="C35" s="30">
-        <v>5</v>
-      </c>
-      <c r="D35" s="30">
-        <v>5</v>
-      </c>
+      <c r="B35" s="28">
+        <v>10</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="O35" s="37" t="s">
-        <v>42</v>
+      <c r="O35" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="P35" s="29">
-        <f>COUNTIFS(Таблица3[Оценка],"=2")</f>
-        <v>24</v>
+        <f>COUNTIFS(Таблица3[Оценка],"=5")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B36" s="30">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="H36" s="4"/>
+      <c r="O36" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="P36" s="29">
+        <f>COUNTIFS(Таблица3[Оценка],"=4")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="30">
         <v>20</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="O37" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37" s="29">
+        <f>COUNTIFS(Таблица3[Оценка],"=3")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="30">
+        <v>5</v>
+      </c>
+      <c r="C38" s="30">
+        <v>5</v>
+      </c>
+      <c r="D38" s="30">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="O38" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="29">
+        <f>COUNTIFS(Таблица3[Оценка],"=2")</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="30">
+        <v>30</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B45" s="13">
         <v>86</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C45" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B46" s="13">
         <v>76</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C46" s="15">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B47" s="13">
         <v>60</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C47" s="15">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="20">
-        <v>0</v>
-      </c>
-      <c r="C45" s="21">
+      <c r="B48" s="20">
+        <v>0</v>
+      </c>
+      <c r="C48" s="21">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O34:P34"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="B3:H3"/>

--- a/БАРС/Баллы_431.xlsx
+++ b/БАРС/Баллы_431.xlsx
@@ -13,8 +13,116 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Иван Слеповичев</author>
+  </authors>
+  <commentList>
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Хорошие отчеты!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Так РСЛОС делать нельзя
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Отчет - "веселые картинки"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Нет одного отчета
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>431 группа</t>
   </si>
@@ -124,9 +232,6 @@
     <t>Другие виды уч. деятельности (Отчет-5, Контрольная-5, работа на занятиях-5)</t>
   </si>
   <si>
-    <t>Промежуточная аттестация (экзамен - 6 вопросов по 5/критерии)</t>
-  </si>
-  <si>
     <t>Дата:</t>
   </si>
   <si>
@@ -157,9 +262,6 @@
     <t>Гельфанов Даниил Русланович</t>
   </si>
   <si>
-    <t>Гендляр Сергей Максимович</t>
-  </si>
-  <si>
     <t>Грицков Данил Владимирович </t>
   </si>
   <si>
@@ -218,13 +320,19 @@
   </si>
   <si>
     <t>Яхин Шамиль Илдусович</t>
+  </si>
+  <si>
+    <t>Промежуточная аттестация (экзамен - 6 вопросов по 5 баллов)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +358,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -403,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -487,6 +608,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,20 +632,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -680,13 +826,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -711,12 +850,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -761,42 +894,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A4:V30" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26" headerRowCellStyle="Обычный" dataCellStyle="Обычный">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A4:V29" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26" headerRowCellStyle="Обычный" dataCellStyle="Обычный">
   <tableColumns count="22">
     <tableColumn id="1" name="ФИО" dataDxfId="25" dataCellStyle="Обычный"/>
     <tableColumn id="2" name="Лекции" dataDxfId="24" dataCellStyle="Обычный"/>
-    <tableColumn id="3" name="ГПСЧ" dataDxfId="23" dataCellStyle="Обычный"/>
-    <tableColumn id="4" name="Распределения" dataDxfId="22" dataCellStyle="Обычный"/>
-    <tableColumn id="5" name="Критерии" dataDxfId="21" dataCellStyle="Обычный"/>
-    <tableColumn id="22" name="Контрольная работа" dataDxfId="20"/>
-    <tableColumn id="23" name="Работа на занятиях" dataDxfId="19"/>
-    <tableColumn id="6" name="Отчет" dataDxfId="18" dataCellStyle="Обычный"/>
-    <tableColumn id="7" name="Лекции (б)" dataDxfId="17" dataCellStyle="Обычный">
-      <calculatedColumnFormula>ROUND(B5/$B$33*$B$35,0)</calculatedColumnFormula>
+    <tableColumn id="3" name="ГПСЧ" dataDxfId="3" dataCellStyle="Обычный"/>
+    <tableColumn id="4" name="Распределения" dataDxfId="23" dataCellStyle="Обычный"/>
+    <tableColumn id="5" name="Критерии" dataDxfId="2" dataCellStyle="Обычный"/>
+    <tableColumn id="22" name="Контрольная работа" dataDxfId="22"/>
+    <tableColumn id="23" name="Работа на занятиях" dataDxfId="21"/>
+    <tableColumn id="6" name="Отчет" dataDxfId="20" dataCellStyle="Обычный"/>
+    <tableColumn id="7" name="Лекции (б)" dataDxfId="19" dataCellStyle="Обычный">
+      <calculatedColumnFormula>ROUND(B5/$B$32*$B$34,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name=" Лабораторные (б)" dataDxfId="16" dataCellStyle="Обычный">
-      <calculatedColumnFormula>C5*$B$36</calculatedColumnFormula>
+    <tableColumn id="8" name=" Лабораторные (б)" dataDxfId="0" dataCellStyle="Обычный">
+      <calculatedColumnFormula>ROUNDUP(C5*$B$35,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Самостоятельная работа (б)" dataDxfId="15" dataCellStyle="Обычный">
-      <calculatedColumnFormula>D5*$B$37</calculatedColumnFormula>
+    <tableColumn id="9" name="Самостоятельная работа (б)" dataDxfId="18" dataCellStyle="Обычный">
+      <calculatedColumnFormula>D5*$B$36</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Другие виды уч.  деятельности (б)" dataDxfId="14" dataCellStyle="Обычный">
-      <calculatedColumnFormula>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H5*$B$38</calculatedColumnFormula>
+    <tableColumn id="10" name="Другие виды уч.  деятельности (б)" dataDxfId="17" dataCellStyle="Обычный">
+      <calculatedColumnFormula>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H5*$B$37</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Промежуточная аттестация (б)" dataDxfId="13" dataCellStyle="Обычный">
-      <calculatedColumnFormula>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</calculatedColumnFormula>
+    <tableColumn id="11" name="Промежуточная аттестация (б)" dataDxfId="1" dataCellStyle="Обычный">
+      <calculatedColumnFormula>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Итого" dataDxfId="12" dataCellStyle="Обычный">
+    <tableColumn id="12" name="Итого" dataDxfId="16" dataCellStyle="Обычный">
       <calculatedColumnFormula>ROUND(SUM(I5:M5),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Вопрос1" dataDxfId="11" dataCellStyle="Обычный"/>
-    <tableColumn id="14" name="Вопрос2" dataDxfId="10" dataCellStyle="Обычный"/>
-    <tableColumn id="15" name="Вопрос3" dataDxfId="9" dataCellStyle="Обычный"/>
-    <tableColumn id="16" name="Вопрос4" dataDxfId="8" dataCellStyle="Обычный"/>
-    <tableColumn id="17" name="Вопрос5" dataDxfId="7" dataCellStyle="Обычный"/>
-    <tableColumn id="18" name="Вопрос6" dataDxfId="6" dataCellStyle="Обычный"/>
-    <tableColumn id="19" name="Комментарий" dataDxfId="5" dataCellStyle="Обычный"/>
-    <tableColumn id="20" name="Оценка" dataDxfId="4" dataCellStyle="Обычный">
+    <tableColumn id="13" name="Вопрос1" dataDxfId="15" dataCellStyle="Обычный"/>
+    <tableColumn id="14" name="Вопрос2" dataDxfId="14" dataCellStyle="Обычный"/>
+    <tableColumn id="15" name="Вопрос3" dataDxfId="13" dataCellStyle="Обычный"/>
+    <tableColumn id="16" name="Вопрос4" dataDxfId="12" dataCellStyle="Обычный"/>
+    <tableColumn id="17" name="Вопрос5" dataDxfId="11" dataCellStyle="Обычный"/>
+    <tableColumn id="18" name="Вопрос6" dataDxfId="10" dataCellStyle="Обычный"/>
+    <tableColumn id="19" name="Комментарий" dataDxfId="9" dataCellStyle="Обычный"/>
+    <tableColumn id="20" name="Оценка" dataDxfId="8" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -805,12 +938,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A44:C48" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="A44:C48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A43:C47" totalsRowShown="0" tableBorderDxfId="7">
+  <autoFilter ref="A43:C47"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Оценка" dataDxfId="2"/>
-    <tableColumn id="2" name="от" dataDxfId="1"/>
-    <tableColumn id="3" name="до" dataDxfId="0"/>
+    <tableColumn id="1" name="Оценка" dataDxfId="6"/>
+    <tableColumn id="2" name="от" dataDxfId="5"/>
+    <tableColumn id="3" name="до" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1102,17 +1235,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
-    <col min="2" max="8" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="13" width="16.44140625" customWidth="1"/>
     <col min="14" max="21" width="13.77734375" customWidth="1"/>
     <col min="22" max="22" width="13.77734375" style="8" customWidth="1"/>
@@ -1120,54 +1257,54 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
       <c r="U3" s="7"/>
       <c r="V3" s="10"/>
     </row>
@@ -1240,39 +1377,53 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="11"/>
+      <c r="A5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="26">
+        <v>12</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41">
+        <v>1</v>
+      </c>
+      <c r="E5" s="41">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
       <c r="I5" s="11">
-        <f>ROUND(B5/$B$33*$B$35,0)</f>
-        <v>0</v>
+        <f>ROUND(B5/$B$32*$B$34,0)</f>
+        <v>10</v>
       </c>
       <c r="J5" s="11">
-        <f>C5*$B$36</f>
-        <v>0</v>
+        <f>ROUNDUP(C5*$B$35,0)</f>
+        <v>25</v>
       </c>
       <c r="K5" s="11">
-        <f>D5*$B$37</f>
-        <v>0</v>
+        <f>D5*$B$36</f>
+        <v>20</v>
       </c>
       <c r="L5" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H5*$B$38</f>
-        <v>0</v>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H5*$B$37</f>
+        <v>10</v>
       </c>
       <c r="M5" s="11">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N5" s="11">
         <f>ROUND(SUM(I5:M5),0)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -1283,43 +1434,57 @@
       <c r="U5" s="11"/>
       <c r="V5" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="11"/>
+      <c r="A6" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="11">
+        <v>12</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41">
+        <v>1</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
       <c r="I6" s="11">
-        <f>ROUND(B6/$B$33*$B$35,0)</f>
-        <v>0</v>
+        <f>ROUND(B6/$B$32*$B$34,0)</f>
+        <v>10</v>
       </c>
       <c r="J6" s="11">
-        <f>C6*$B$36</f>
-        <v>0</v>
+        <f>ROUNDUP(C6*$B$35,0)</f>
+        <v>25</v>
       </c>
       <c r="K6" s="11">
-        <f>D6*$B$37</f>
-        <v>0</v>
+        <f>D6*$B$36</f>
+        <v>20</v>
       </c>
       <c r="L6" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H6*$B$38</f>
-        <v>0</v>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H6*$B$37</f>
+        <v>10</v>
       </c>
       <c r="M6" s="11">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" ref="N6:N30" si="0">ROUND(SUM(I6:M6),0)</f>
-        <v>0</v>
+        <f t="shared" ref="N6:N29" si="0">ROUND(SUM(I6:M6),0)</f>
+        <v>65</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -1330,43 +1495,57 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="11"/>
+      <c r="A7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11">
+        <v>12</v>
+      </c>
+      <c r="C7" s="41">
+        <v>1</v>
+      </c>
+      <c r="D7" s="41">
+        <v>1</v>
+      </c>
+      <c r="E7" s="41">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
       <c r="I7" s="11">
-        <f>ROUND(B7/$B$33*$B$35,0)</f>
-        <v>0</v>
+        <f>ROUND(B7/$B$32*$B$34,0)</f>
+        <v>10</v>
       </c>
       <c r="J7" s="11">
-        <f>C7*$B$36</f>
-        <v>0</v>
+        <f>ROUNDUP(C7*$B$35,0)</f>
+        <v>25</v>
       </c>
       <c r="K7" s="11">
-        <f>D7*$B$37</f>
-        <v>0</v>
+        <f>D7*$B$36</f>
+        <v>20</v>
       </c>
       <c r="L7" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H7*$B$38</f>
-        <v>0</v>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H7*$B$37</f>
+        <v>10</v>
       </c>
       <c r="M7" s="11">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -1377,43 +1556,57 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22">
-        <f t="shared" ref="I8:I20" si="1">ROUND(B8/$B$33*$B$35,0)</f>
-        <v>0</v>
+      <c r="A8" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="22">
+        <v>12</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42">
+        <v>1</v>
+      </c>
+      <c r="F8" s="26">
+        <v>1</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <f>ROUND(B8/$B$32*$B$34,0)</f>
+        <v>10</v>
       </c>
       <c r="J8" s="22">
-        <f t="shared" ref="J8:J20" si="2">C8*$B$36</f>
-        <v>0</v>
+        <f>ROUNDUP(C8*$B$35,0)</f>
+        <v>25</v>
       </c>
       <c r="K8" s="22">
-        <f t="shared" ref="K8:K20" si="3">D8*$B$37</f>
-        <v>0</v>
+        <f>D8*$B$36</f>
+        <v>20</v>
       </c>
       <c r="L8" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H8*$B$38</f>
-        <v>0</v>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H8*$B$37</f>
+        <v>10</v>
       </c>
       <c r="M8" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N8" s="22">
-        <f t="shared" ref="N8:N20" si="4">ROUND(SUM(I8:M8),0)</f>
-        <v>0</v>
+        <f t="shared" ref="N8:N19" si="1">ROUND(SUM(I8:M8),0)</f>
+        <v>65</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
@@ -1424,43 +1617,58 @@
       <c r="U8" s="22"/>
       <c r="V8" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22">
+      <c r="A9" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="22">
+        <v>12</v>
+      </c>
+      <c r="C9" s="42">
+        <f>8/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D9" s="42">
+        <v>1</v>
+      </c>
+      <c r="E9" s="42">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11">
+        <f>ROUND(B9/$B$32*$B$34,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J9" s="22">
+        <f>ROUNDUP(C9*$B$35,0)</f>
+        <v>23</v>
+      </c>
+      <c r="K9" s="22">
+        <f>D9*$B$36</f>
+        <v>20</v>
+      </c>
+      <c r="L9" s="22">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H9*$B$37</f>
+        <v>10</v>
+      </c>
+      <c r="M9" s="23">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H9*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -1471,43 +1679,58 @@
       <c r="U9" s="22"/>
       <c r="V9" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22">
+      <c r="A10" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="22">
+        <v>11</v>
+      </c>
+      <c r="C10" s="42">
+        <f>3/9</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D10" s="42">
+        <v>0</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>1</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <f>ROUND(B10/$B$32*$B$34,0)</f>
+        <v>9</v>
+      </c>
+      <c r="J10" s="22">
+        <f>ROUNDUP(C10*$B$35,0)</f>
+        <v>9</v>
+      </c>
+      <c r="K10" s="22">
+        <f>D10*$B$36</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H10*$B$37</f>
+        <v>5</v>
+      </c>
+      <c r="M10" s="23">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H10*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -1522,39 +1745,53 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22">
+      <c r="A11" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="22">
+        <v>12</v>
+      </c>
+      <c r="C11" s="42">
+        <v>1</v>
+      </c>
+      <c r="D11" s="42">
+        <v>1</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>1</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <f>ROUND(B11/$B$32*$B$34,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J11" s="22">
+        <f>ROUNDUP(C11*$B$35,0)</f>
+        <v>25</v>
+      </c>
+      <c r="K11" s="22">
+        <f>D11*$B$36</f>
+        <v>20</v>
+      </c>
+      <c r="L11" s="22">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H11*$B$37</f>
+        <v>10</v>
+      </c>
+      <c r="M11" s="23">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H11*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -1565,43 +1802,57 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22">
+      <c r="A12" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="22">
+        <v>12</v>
+      </c>
+      <c r="C12" s="42">
+        <v>1</v>
+      </c>
+      <c r="D12" s="42">
+        <v>1</v>
+      </c>
+      <c r="E12" s="42">
+        <v>1</v>
+      </c>
+      <c r="F12" s="26">
+        <v>1</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
+        <f>ROUND(B12/$B$32*$B$34,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J12" s="22">
+        <f>ROUNDUP(C12*$B$35,0)</f>
+        <v>25</v>
+      </c>
+      <c r="K12" s="22">
+        <f>D12*$B$36</f>
+        <v>20</v>
+      </c>
+      <c r="L12" s="22">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H12*$B$37</f>
+        <v>10</v>
+      </c>
+      <c r="M12" s="23">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H12*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
@@ -1612,43 +1863,57 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22">
+      <c r="A13" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="11">
+        <v>12</v>
+      </c>
+      <c r="C13" s="42">
+        <v>1</v>
+      </c>
+      <c r="D13" s="42">
+        <v>1</v>
+      </c>
+      <c r="E13" s="42">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26">
+        <v>1</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11">
+        <f>ROUND(B13/$B$32*$B$34,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J13" s="22">
+        <f>ROUNDUP(C13*$B$35,0)</f>
+        <v>25</v>
+      </c>
+      <c r="K13" s="22">
+        <f>D13*$B$36</f>
+        <v>20</v>
+      </c>
+      <c r="L13" s="22">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H13*$B$37</f>
+        <v>10</v>
+      </c>
+      <c r="M13" s="23">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H13*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -1659,43 +1924,57 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22">
+      <c r="A14" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="22">
+        <v>12</v>
+      </c>
+      <c r="C14" s="42">
+        <v>1</v>
+      </c>
+      <c r="D14" s="42">
+        <v>1</v>
+      </c>
+      <c r="E14" s="42">
+        <v>1</v>
+      </c>
+      <c r="F14" s="26">
+        <v>1</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <f>ROUND(B14/$B$32*$B$34,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J14" s="22">
+        <f>ROUNDUP(C14*$B$35,0)</f>
+        <v>25</v>
+      </c>
+      <c r="K14" s="22">
+        <f>D14*$B$36</f>
+        <v>20</v>
+      </c>
+      <c r="L14" s="22">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H14*$B$37</f>
+        <v>10</v>
+      </c>
+      <c r="M14" s="23">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H14*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
@@ -1706,43 +1985,57 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22">
+      <c r="A15" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="22">
+        <v>11</v>
+      </c>
+      <c r="C15" s="42">
+        <v>1</v>
+      </c>
+      <c r="D15" s="42">
+        <v>1</v>
+      </c>
+      <c r="E15" s="42">
+        <v>1</v>
+      </c>
+      <c r="F15" s="26">
+        <v>1</v>
+      </c>
+      <c r="G15" s="26">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
+        <f>ROUND(B15/$B$32*$B$34,0)</f>
+        <v>9</v>
+      </c>
+      <c r="J15" s="22">
+        <f>ROUNDUP(C15*$B$35,0)</f>
+        <v>25</v>
+      </c>
+      <c r="K15" s="22">
+        <f>D15*$B$36</f>
+        <v>20</v>
+      </c>
+      <c r="L15" s="22">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H15*$B$37</f>
+        <v>15</v>
+      </c>
+      <c r="M15" s="23">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H15*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
@@ -1753,43 +2046,57 @@
       <c r="U15" s="22"/>
       <c r="V15" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22">
+      <c r="A16" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="22">
+        <v>5</v>
+      </c>
+      <c r="C16" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="D16" s="42">
+        <v>1</v>
+      </c>
+      <c r="E16" s="42">
+        <v>1</v>
+      </c>
+      <c r="F16" s="26">
+        <v>1</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <f>ROUND(B16/$B$32*$B$34,0)</f>
+        <v>4</v>
+      </c>
+      <c r="J16" s="22">
+        <f>ROUNDUP(C16*$B$35,0)</f>
+        <v>23</v>
+      </c>
+      <c r="K16" s="22">
+        <f>D16*$B$36</f>
+        <v>20</v>
+      </c>
+      <c r="L16" s="22">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H16*$B$37</f>
+        <v>5</v>
+      </c>
+      <c r="M16" s="23">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H16*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
@@ -1804,39 +2111,53 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22">
+      <c r="A17" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="22">
+        <v>12</v>
+      </c>
+      <c r="C17" s="42">
+        <v>1</v>
+      </c>
+      <c r="D17" s="42">
+        <v>1</v>
+      </c>
+      <c r="E17" s="42">
+        <v>1</v>
+      </c>
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11">
+        <f>ROUND(B17/$B$32*$B$34,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J17" s="22">
+        <f>ROUNDUP(C17*$B$35,0)</f>
+        <v>25</v>
+      </c>
+      <c r="K17" s="22">
+        <f>D17*$B$36</f>
+        <v>20</v>
+      </c>
+      <c r="L17" s="22">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H17*$B$37</f>
+        <v>10</v>
+      </c>
+      <c r="M17" s="23">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H17*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -1847,43 +2168,57 @@
       <c r="U17" s="22"/>
       <c r="V17" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22">
+      <c r="A18" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="22">
+        <v>12</v>
+      </c>
+      <c r="C18" s="42">
+        <v>1</v>
+      </c>
+      <c r="D18" s="42">
+        <v>1</v>
+      </c>
+      <c r="E18" s="42">
+        <v>1</v>
+      </c>
+      <c r="F18" s="26">
+        <v>1</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
+        <f>ROUND(B18/$B$32*$B$34,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J18" s="22">
+        <f>ROUNDUP(C18*$B$35,0)</f>
+        <v>25</v>
+      </c>
+      <c r="K18" s="22">
+        <f>D18*$B$36</f>
+        <v>20</v>
+      </c>
+      <c r="L18" s="22">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H18*$B$37</f>
+        <v>10</v>
+      </c>
+      <c r="M18" s="23">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H18*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
@@ -1894,43 +2229,57 @@
       <c r="U18" s="22"/>
       <c r="V18" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22">
+      <c r="A19" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="22">
+        <v>12</v>
+      </c>
+      <c r="C19" s="42">
+        <v>1</v>
+      </c>
+      <c r="D19" s="42">
+        <v>1</v>
+      </c>
+      <c r="E19" s="42">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>1</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11">
+        <f>ROUND(B19/$B$32*$B$34,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J19" s="22">
+        <f>ROUNDUP(C19*$B$35,0)</f>
+        <v>25</v>
+      </c>
+      <c r="K19" s="22">
+        <f>D19*$B$36</f>
+        <v>20</v>
+      </c>
+      <c r="L19" s="22">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H19*$B$37</f>
+        <v>10</v>
+      </c>
+      <c r="M19" s="23">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H19*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -1941,90 +2290,119 @@
       <c r="U19" s="22"/>
       <c r="V19" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="11">
+        <v>12</v>
+      </c>
+      <c r="C20" s="41">
+        <v>1</v>
+      </c>
+      <c r="D20" s="41">
+        <v>1</v>
+      </c>
+      <c r="E20" s="41">
+        <v>1</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <f>ROUND(B20/$B$32*$B$34,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J20" s="11">
+        <f>ROUNDUP(C20*$B$35,0)</f>
+        <v>25</v>
+      </c>
+      <c r="K20" s="11">
+        <f>D20*$B$36</f>
+        <v>20</v>
+      </c>
+      <c r="L20" s="11">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H20*$B$37</f>
+        <v>5</v>
+      </c>
+      <c r="M20" s="11">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11">
+        <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H20*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="23">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22">
-        <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="11">
+        <v>12</v>
+      </c>
+      <c r="C21" s="41">
+        <f>9/9</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="41">
+        <v>1</v>
+      </c>
+      <c r="E21" s="41">
+        <v>1</v>
+      </c>
+      <c r="F21" s="26">
+        <v>1</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
       <c r="I21" s="11">
-        <f t="shared" ref="I21:I30" si="5">ROUND(B21/$B$33*$B$35,0)</f>
-        <v>0</v>
+        <f>ROUND(B21/$B$32*$B$34,0)</f>
+        <v>10</v>
       </c>
       <c r="J21" s="11">
-        <f t="shared" ref="J21:J30" si="6">C21*$B$36</f>
-        <v>0</v>
+        <f>ROUNDUP(C21*$B$35,0)</f>
+        <v>25</v>
       </c>
       <c r="K21" s="11">
-        <f t="shared" ref="K21:K30" si="7">D21*$B$37</f>
-        <v>0</v>
+        <f>D21*$B$36</f>
+        <v>20</v>
       </c>
       <c r="L21" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H21*$B$38</f>
-        <v>0</v>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H21*$B$37</f>
+        <v>5</v>
       </c>
       <c r="M21" s="11">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N21" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -2035,43 +2413,57 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="11"/>
+      <c r="A22" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="11">
+        <v>11</v>
+      </c>
+      <c r="C22" s="41">
+        <v>1</v>
+      </c>
+      <c r="D22" s="41">
+        <v>1</v>
+      </c>
+      <c r="E22" s="41">
+        <v>1</v>
+      </c>
+      <c r="F22" s="26">
+        <v>1</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
       <c r="I22" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>ROUND(B22/$B$32*$B$34,0)</f>
+        <v>9</v>
       </c>
       <c r="J22" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>ROUNDUP(C22*$B$35,0)</f>
+        <v>25</v>
       </c>
       <c r="K22" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>D22*$B$36</f>
+        <v>20</v>
       </c>
       <c r="L22" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H22*$B$38</f>
-        <v>0</v>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H22*$B$37</f>
+        <v>10</v>
       </c>
       <c r="M22" s="11">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -2082,43 +2474,57 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="11"/>
+      <c r="A23" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="11">
+        <v>11</v>
+      </c>
+      <c r="C23" s="41">
+        <v>1</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1</v>
+      </c>
+      <c r="E23" s="41">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <v>1</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
       <c r="I23" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>ROUND(B23/$B$32*$B$34,0)</f>
+        <v>9</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>ROUNDUP(C23*$B$35,0)</f>
+        <v>25</v>
       </c>
       <c r="K23" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>D23*$B$36</f>
+        <v>20</v>
       </c>
       <c r="L23" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H23*$B$38</f>
-        <v>0</v>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H23*$B$37</f>
+        <v>10</v>
       </c>
       <c r="M23" s="11">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N23" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -2129,43 +2535,57 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="11"/>
+      <c r="A24" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="11">
+        <v>12</v>
+      </c>
+      <c r="C24" s="41">
+        <v>1</v>
+      </c>
+      <c r="D24" s="41">
+        <v>1</v>
+      </c>
+      <c r="E24" s="41">
+        <v>1</v>
+      </c>
+      <c r="F24" s="26">
+        <v>1</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1</v>
+      </c>
       <c r="I24" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>ROUND(B24/$B$32*$B$34,0)</f>
+        <v>10</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>ROUNDUP(C24*$B$35,0)</f>
+        <v>25</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>D24*$B$36</f>
+        <v>20</v>
       </c>
       <c r="L24" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H24*$B$38</f>
-        <v>0</v>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H24*$B$37</f>
+        <v>10</v>
       </c>
       <c r="M24" s="11">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N24" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
@@ -2176,43 +2596,57 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="11">
+        <v>9</v>
+      </c>
+      <c r="C25" s="41">
+        <v>1</v>
+      </c>
+      <c r="D25" s="41">
+        <v>1</v>
+      </c>
+      <c r="E25" s="41">
+        <v>1</v>
+      </c>
+      <c r="F25" s="26">
+        <v>1</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1</v>
+      </c>
       <c r="I25" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>ROUND(B25/$B$32*$B$34,0)</f>
+        <v>8</v>
       </c>
       <c r="J25" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>ROUNDUP(C25*$B$35,0)</f>
+        <v>25</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>D25*$B$36</f>
+        <v>20</v>
       </c>
       <c r="L25" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H25*$B$38</f>
-        <v>0</v>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H25*$B$37</f>
+        <v>10</v>
       </c>
       <c r="M25" s="11">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -2223,43 +2657,57 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="11"/>
+      <c r="A26" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="11">
+        <v>12</v>
+      </c>
+      <c r="C26" s="41">
+        <v>1</v>
+      </c>
+      <c r="D26" s="41">
+        <v>1</v>
+      </c>
+      <c r="E26" s="41">
+        <v>1</v>
+      </c>
+      <c r="F26" s="26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1</v>
+      </c>
       <c r="I26" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>ROUND(B26/$B$32*$B$34,0)</f>
+        <v>10</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>ROUNDUP(C26*$B$35,0)</f>
+        <v>25</v>
       </c>
       <c r="K26" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>D26*$B$36</f>
+        <v>20</v>
       </c>
       <c r="L26" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H26*$B$38</f>
-        <v>0</v>
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H26*$B$37</f>
+        <v>10</v>
       </c>
       <c r="M26" s="11">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N26" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -2270,90 +2718,118 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="11"/>
+      <c r="A27" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="26">
+        <v>6</v>
+      </c>
+      <c r="C27" s="43">
+        <v>0</v>
+      </c>
+      <c r="D27" s="43">
+        <v>0</v>
+      </c>
+      <c r="E27" s="43">
+        <v>0</v>
+      </c>
+      <c r="F27" s="26">
+        <v>1</v>
+      </c>
+      <c r="G27" s="26">
+        <v>0</v>
+      </c>
+      <c r="H27" s="26">
+        <v>0</v>
+      </c>
       <c r="I27" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H27*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11">
+        <f>ROUND(B27/$B$32*$B$34,0)</f>
+        <v>5</v>
+      </c>
+      <c r="J27" s="26">
+        <f>ROUNDUP(C27*$B$35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="26">
+        <f>D27*$B$36</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="33">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H27*$B$37</f>
+        <v>5</v>
+      </c>
+      <c r="M27" s="33">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="26">
+        <f>ROUND(SUM(I27:M27),0)</f>
+        <v>10</v>
+      </c>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26">
-        <f>ROUND(B28/$B$33*$B$35,0)</f>
-        <v>0</v>
+      <c r="A28" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="26">
+        <v>12</v>
+      </c>
+      <c r="C28" s="43">
+        <v>1</v>
+      </c>
+      <c r="D28" s="43">
+        <v>1</v>
+      </c>
+      <c r="E28" s="43">
+        <v>1</v>
+      </c>
+      <c r="F28" s="26">
+        <v>1</v>
+      </c>
+      <c r="G28" s="26">
+        <v>0</v>
+      </c>
+      <c r="H28" s="26">
+        <v>1</v>
+      </c>
+      <c r="I28" s="11">
+        <f>ROUND(B28/$B$32*$B$34,0)</f>
+        <v>10</v>
       </c>
       <c r="J28" s="26">
-        <f>C28*$B$36</f>
-        <v>0</v>
+        <f>ROUNDUP(C28*$B$35,0)</f>
+        <v>25</v>
       </c>
       <c r="K28" s="26">
-        <f>D28*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="38">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H28*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="38">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <f>D28*$B$36</f>
+        <v>20</v>
+      </c>
+      <c r="L28" s="33">
+        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H28*$B$37</f>
+        <v>10</v>
+      </c>
+      <c r="M28" s="33">
+        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N28" s="26">
         <f>ROUND(SUM(I28:M28),0)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O28" s="26"/>
       <c r="P28" s="26"/>
@@ -2364,55 +2840,32 @@
       <c r="U28" s="26"/>
       <c r="V28" s="26">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26">
-        <f>ROUND(B29/$B$33*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="26">
-        <f>C29*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="26">
-        <f>D29*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="38">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H29*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="38">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="26">
-        <f>ROUND(SUM(I29:M29),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26">
-        <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
-      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -2423,30 +2876,12 @@
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="11">
-        <f>Таблица3[[#This Row],[Контрольная работа]]*$C$38+Таблица3[[#This Row],[Работа на занятиях]]*$D$38+ H30*$B$38</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <f>MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -2454,111 +2889,109 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="V30" s="11">
-        <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
+      <c r="V30" s="11"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="12">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
+      <c r="A33" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="O33" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="28">
+        <v>10</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="O34" s="33" t="s">
+      <c r="O34" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="P34" s="33"/>
+      <c r="P34" s="29">
+        <f>COUNTIFS(Таблица3[Оценка],"=5")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="28">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B35" s="30">
+        <v>25</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="4"/>
       <c r="O35" s="32" t="s">
         <v>39</v>
       </c>
       <c r="P35" s="29">
-        <f>COUNTIFS(Таблица3[Оценка],"=5")</f>
+        <f>COUNTIFS(Таблица3[Оценка],"=4")</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B36" s="30">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="2"/>
       <c r="O36" s="32" t="s">
         <v>40</v>
       </c>
       <c r="P36" s="29">
-        <f>COUNTIFS(Таблица3[Оценка],"=4")</f>
-        <v>0</v>
+        <f>COUNTIFS(Таблица3[Оценка],"=3")</f>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B37" s="30">
-        <v>20</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="C37" s="30">
+        <v>5</v>
+      </c>
+      <c r="D37" s="30">
+        <v>5</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2567,112 +3000,87 @@
         <v>41</v>
       </c>
       <c r="P37" s="29">
-        <f>COUNTIFS(Таблица3[Оценка],"=3")</f>
-        <v>0</v>
+        <f>COUNTIFS(Таблица3[Оценка],"=2")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B38" s="30">
-        <v>5</v>
-      </c>
-      <c r="C38" s="30">
-        <v>5</v>
-      </c>
-      <c r="D38" s="30">
-        <v>5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="O38" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="P38" s="29">
-        <f>COUNTIFS(Таблица3[Оценка],"=2")</f>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="30">
-        <v>30</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>26</v>
+      <c r="A44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="13">
+        <v>86</v>
+      </c>
+      <c r="C44" s="15">
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" s="13">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C45" s="15">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46" s="13">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C46" s="15">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="13">
-        <v>60</v>
-      </c>
-      <c r="C47" s="15">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
+      <c r="A47" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="20">
-        <v>0</v>
-      </c>
-      <c r="C48" s="21">
+      <c r="B47" s="20">
+        <v>0</v>
+      </c>
+      <c r="C47" s="21">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O33:P33"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="B3:H3"/>
@@ -2680,9 +3088,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/БАРС/Баллы_431.xlsx
+++ b/БАРС/Баллы_431.xlsx
@@ -617,6 +617,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,37 +640,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -826,6 +810,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -853,6 +845,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -898,38 +898,38 @@
   <tableColumns count="22">
     <tableColumn id="1" name="ФИО" dataDxfId="25" dataCellStyle="Обычный"/>
     <tableColumn id="2" name="Лекции" dataDxfId="24" dataCellStyle="Обычный"/>
-    <tableColumn id="3" name="ГПСЧ" dataDxfId="3" dataCellStyle="Обычный"/>
-    <tableColumn id="4" name="Распределения" dataDxfId="23" dataCellStyle="Обычный"/>
-    <tableColumn id="5" name="Критерии" dataDxfId="2" dataCellStyle="Обычный"/>
-    <tableColumn id="22" name="Контрольная работа" dataDxfId="22"/>
-    <tableColumn id="23" name="Работа на занятиях" dataDxfId="21"/>
-    <tableColumn id="6" name="Отчет" dataDxfId="20" dataCellStyle="Обычный"/>
-    <tableColumn id="7" name="Лекции (б)" dataDxfId="19" dataCellStyle="Обычный">
+    <tableColumn id="3" name="ГПСЧ" dataDxfId="23" dataCellStyle="Обычный"/>
+    <tableColumn id="4" name="Распределения" dataDxfId="22" dataCellStyle="Обычный"/>
+    <tableColumn id="5" name="Критерии" dataDxfId="21" dataCellStyle="Обычный"/>
+    <tableColumn id="22" name="Контрольная работа" dataDxfId="20"/>
+    <tableColumn id="23" name="Работа на занятиях" dataDxfId="19"/>
+    <tableColumn id="6" name="Отчет" dataDxfId="18" dataCellStyle="Обычный"/>
+    <tableColumn id="7" name="Лекции (б)" dataDxfId="17" dataCellStyle="Обычный">
       <calculatedColumnFormula>ROUND(B5/$B$32*$B$34,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name=" Лабораторные (б)" dataDxfId="0" dataCellStyle="Обычный">
+    <tableColumn id="8" name=" Лабораторные (б)" dataDxfId="16" dataCellStyle="Обычный">
       <calculatedColumnFormula>ROUNDUP(C5*$B$35,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Самостоятельная работа (б)" dataDxfId="18" dataCellStyle="Обычный">
+    <tableColumn id="9" name="Самостоятельная работа (б)" dataDxfId="15" dataCellStyle="Обычный">
       <calculatedColumnFormula>D5*$B$36</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Другие виды уч.  деятельности (б)" dataDxfId="17" dataCellStyle="Обычный">
+    <tableColumn id="10" name="Другие виды уч.  деятельности (б)" dataDxfId="14" dataCellStyle="Обычный">
       <calculatedColumnFormula>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H5*$B$37</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Промежуточная аттестация (б)" dataDxfId="1" dataCellStyle="Обычный">
+    <tableColumn id="11" name="Промежуточная аттестация (б)" dataDxfId="13" dataCellStyle="Обычный">
       <calculatedColumnFormula>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Итого" dataDxfId="16" dataCellStyle="Обычный">
+    <tableColumn id="12" name="Итого" dataDxfId="12" dataCellStyle="Обычный">
       <calculatedColumnFormula>ROUND(SUM(I5:M5),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Вопрос1" dataDxfId="15" dataCellStyle="Обычный"/>
-    <tableColumn id="14" name="Вопрос2" dataDxfId="14" dataCellStyle="Обычный"/>
-    <tableColumn id="15" name="Вопрос3" dataDxfId="13" dataCellStyle="Обычный"/>
-    <tableColumn id="16" name="Вопрос4" dataDxfId="12" dataCellStyle="Обычный"/>
-    <tableColumn id="17" name="Вопрос5" dataDxfId="11" dataCellStyle="Обычный"/>
-    <tableColumn id="18" name="Вопрос6" dataDxfId="10" dataCellStyle="Обычный"/>
-    <tableColumn id="19" name="Комментарий" dataDxfId="9" dataCellStyle="Обычный"/>
-    <tableColumn id="20" name="Оценка" dataDxfId="8" dataCellStyle="Обычный">
+    <tableColumn id="13" name="Вопрос1" dataDxfId="11" dataCellStyle="Обычный"/>
+    <tableColumn id="14" name="Вопрос2" dataDxfId="10" dataCellStyle="Обычный"/>
+    <tableColumn id="15" name="Вопрос3" dataDxfId="9" dataCellStyle="Обычный"/>
+    <tableColumn id="16" name="Вопрос4" dataDxfId="8" dataCellStyle="Обычный"/>
+    <tableColumn id="17" name="Вопрос5" dataDxfId="7" dataCellStyle="Обычный"/>
+    <tableColumn id="18" name="Вопрос6" dataDxfId="6" dataCellStyle="Обычный"/>
+    <tableColumn id="19" name="Комментарий" dataDxfId="5" dataCellStyle="Обычный"/>
+    <tableColumn id="20" name="Оценка" dataDxfId="4" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -938,12 +938,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A43:C47" totalsRowShown="0" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A43:C47" totalsRowShown="0" tableBorderDxfId="3">
   <autoFilter ref="A43:C47"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Оценка" dataDxfId="6"/>
-    <tableColumn id="2" name="от" dataDxfId="5"/>
-    <tableColumn id="3" name="до" dataDxfId="4"/>
+    <tableColumn id="1" name="Оценка" dataDxfId="2"/>
+    <tableColumn id="2" name="от" dataDxfId="1"/>
+    <tableColumn id="3" name="до" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,50 +1261,50 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38" t="s">
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
       <c r="U3" s="7"/>
       <c r="V3" s="10"/>
     </row>
@@ -1383,13 +1383,13 @@
       <c r="B5" s="26">
         <v>12</v>
       </c>
-      <c r="C5" s="41">
-        <v>1</v>
-      </c>
-      <c r="D5" s="41">
-        <v>1</v>
-      </c>
-      <c r="E5" s="41">
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36">
         <v>1</v>
       </c>
       <c r="F5" s="26">
@@ -1402,15 +1402,15 @@
         <v>1</v>
       </c>
       <c r="I5" s="11">
-        <f>ROUND(B5/$B$32*$B$34,0)</f>
+        <f t="shared" ref="I5:I28" si="0">ROUND(B5/$B$32*$B$34,0)</f>
         <v>10</v>
       </c>
       <c r="J5" s="11">
-        <f>ROUNDUP(C5*$B$35,0)</f>
+        <f t="shared" ref="J5:J28" si="1">ROUNDUP(C5*$B$35,0)</f>
         <v>25</v>
       </c>
       <c r="K5" s="11">
-        <f>D5*$B$36</f>
+        <f t="shared" ref="K5:K28" si="2">D5*$B$36</f>
         <v>20</v>
       </c>
       <c r="L5" s="11">
@@ -1444,13 +1444,13 @@
       <c r="B6" s="11">
         <v>12</v>
       </c>
-      <c r="C6" s="41">
-        <v>1</v>
-      </c>
-      <c r="D6" s="41">
-        <v>1</v>
-      </c>
-      <c r="E6" s="41">
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1</v>
+      </c>
+      <c r="E6" s="36">
         <v>1</v>
       </c>
       <c r="F6" s="26">
@@ -1463,15 +1463,15 @@
         <v>1</v>
       </c>
       <c r="I6" s="11">
-        <f>ROUND(B6/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J6" s="11">
-        <f>ROUNDUP(C6*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K6" s="11">
-        <f>D6*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L6" s="11">
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" ref="N6:N29" si="0">ROUND(SUM(I6:M6),0)</f>
+        <f t="shared" ref="N6:N26" si="3">ROUND(SUM(I6:M6),0)</f>
         <v>65</v>
       </c>
       <c r="O6" s="11"/>
@@ -1505,13 +1505,13 @@
       <c r="B7" s="11">
         <v>12</v>
       </c>
-      <c r="C7" s="41">
-        <v>1</v>
-      </c>
-      <c r="D7" s="41">
-        <v>1</v>
-      </c>
-      <c r="E7" s="41">
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36">
         <v>1</v>
       </c>
       <c r="F7" s="26">
@@ -1524,15 +1524,15 @@
         <v>1</v>
       </c>
       <c r="I7" s="11">
-        <f>ROUND(B7/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J7" s="11">
-        <f>ROUNDUP(C7*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K7" s="11">
-        <f>D7*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L7" s="11">
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="O7" s="11"/>
@@ -1566,13 +1566,13 @@
       <c r="B8" s="22">
         <v>12</v>
       </c>
-      <c r="C8" s="42">
-        <v>1</v>
-      </c>
-      <c r="D8" s="42">
-        <v>1</v>
-      </c>
-      <c r="E8" s="42">
+      <c r="C8" s="37">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37">
+        <v>1</v>
+      </c>
+      <c r="E8" s="37">
         <v>1</v>
       </c>
       <c r="F8" s="26">
@@ -1585,15 +1585,15 @@
         <v>1</v>
       </c>
       <c r="I8" s="11">
-        <f>ROUND(B8/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J8" s="22">
-        <f>ROUNDUP(C8*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K8" s="22">
-        <f>D8*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L8" s="22">
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="22">
-        <f t="shared" ref="N8:N19" si="1">ROUND(SUM(I8:M8),0)</f>
+        <f t="shared" ref="N8:N19" si="4">ROUND(SUM(I8:M8),0)</f>
         <v>65</v>
       </c>
       <c r="O8" s="22"/>
@@ -1627,14 +1627,14 @@
       <c r="B9" s="22">
         <v>12</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="37">
         <f>8/9</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="D9" s="42">
-        <v>1</v>
-      </c>
-      <c r="E9" s="42">
+      <c r="D9" s="37">
+        <v>1</v>
+      </c>
+      <c r="E9" s="37">
         <v>1</v>
       </c>
       <c r="F9" s="26">
@@ -1647,15 +1647,15 @@
         <v>1</v>
       </c>
       <c r="I9" s="11">
-        <f>ROUND(B9/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J9" s="22">
-        <f>ROUNDUP(C9*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="K9" s="22">
-        <f>D9*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L9" s="22">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="O9" s="22"/>
@@ -1689,14 +1689,14 @@
       <c r="B10" s="22">
         <v>11</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="37">
         <f>3/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D10" s="42">
-        <v>0</v>
-      </c>
-      <c r="E10" s="42">
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37">
         <v>0</v>
       </c>
       <c r="F10" s="26">
@@ -1709,15 +1709,15 @@
         <v>0</v>
       </c>
       <c r="I10" s="11">
-        <f>ROUND(B10/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J10" s="22">
-        <f>ROUNDUP(C10*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K10" s="22">
-        <f>D10*$B$36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="22">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="O10" s="22"/>
@@ -1751,13 +1751,13 @@
       <c r="B11" s="22">
         <v>12</v>
       </c>
-      <c r="C11" s="42">
-        <v>1</v>
-      </c>
-      <c r="D11" s="42">
-        <v>1</v>
-      </c>
-      <c r="E11" s="42">
+      <c r="C11" s="37">
+        <v>1</v>
+      </c>
+      <c r="D11" s="37">
+        <v>1</v>
+      </c>
+      <c r="E11" s="37">
         <v>0</v>
       </c>
       <c r="F11" s="26">
@@ -1770,15 +1770,15 @@
         <v>1</v>
       </c>
       <c r="I11" s="11">
-        <f>ROUND(B11/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J11" s="22">
-        <f>ROUNDUP(C11*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K11" s="22">
-        <f>D11*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L11" s="22">
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="O11" s="22"/>
@@ -1812,13 +1812,13 @@
       <c r="B12" s="22">
         <v>12</v>
       </c>
-      <c r="C12" s="42">
-        <v>1</v>
-      </c>
-      <c r="D12" s="42">
-        <v>1</v>
-      </c>
-      <c r="E12" s="42">
+      <c r="C12" s="37">
+        <v>1</v>
+      </c>
+      <c r="D12" s="37">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37">
         <v>1</v>
       </c>
       <c r="F12" s="26">
@@ -1831,15 +1831,15 @@
         <v>1</v>
       </c>
       <c r="I12" s="11">
-        <f>ROUND(B12/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J12" s="22">
-        <f>ROUNDUP(C12*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K12" s="22">
-        <f>D12*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L12" s="22">
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="O12" s="22"/>
@@ -1873,13 +1873,13 @@
       <c r="B13" s="11">
         <v>12</v>
       </c>
-      <c r="C13" s="42">
-        <v>1</v>
-      </c>
-      <c r="D13" s="42">
-        <v>1</v>
-      </c>
-      <c r="E13" s="42">
+      <c r="C13" s="37">
+        <v>1</v>
+      </c>
+      <c r="D13" s="37">
+        <v>1</v>
+      </c>
+      <c r="E13" s="37">
         <v>1</v>
       </c>
       <c r="F13" s="26">
@@ -1892,15 +1892,15 @@
         <v>1</v>
       </c>
       <c r="I13" s="11">
-        <f>ROUND(B13/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J13" s="22">
-        <f>ROUNDUP(C13*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K13" s="22">
-        <f>D13*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L13" s="22">
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="O13" s="22"/>
@@ -1934,13 +1934,13 @@
       <c r="B14" s="22">
         <v>12</v>
       </c>
-      <c r="C14" s="42">
-        <v>1</v>
-      </c>
-      <c r="D14" s="42">
-        <v>1</v>
-      </c>
-      <c r="E14" s="42">
+      <c r="C14" s="37">
+        <v>1</v>
+      </c>
+      <c r="D14" s="37">
+        <v>1</v>
+      </c>
+      <c r="E14" s="37">
         <v>1</v>
       </c>
       <c r="F14" s="26">
@@ -1953,15 +1953,15 @@
         <v>1</v>
       </c>
       <c r="I14" s="11">
-        <f>ROUND(B14/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J14" s="22">
-        <f>ROUNDUP(C14*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K14" s="22">
-        <f>D14*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L14" s="22">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="O14" s="22"/>
@@ -1995,13 +1995,13 @@
       <c r="B15" s="22">
         <v>11</v>
       </c>
-      <c r="C15" s="42">
-        <v>1</v>
-      </c>
-      <c r="D15" s="42">
-        <v>1</v>
-      </c>
-      <c r="E15" s="42">
+      <c r="C15" s="37">
+        <v>1</v>
+      </c>
+      <c r="D15" s="37">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37">
         <v>1</v>
       </c>
       <c r="F15" s="26">
@@ -2014,15 +2014,15 @@
         <v>1</v>
       </c>
       <c r="I15" s="11">
-        <f>ROUND(B15/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J15" s="22">
-        <f>ROUNDUP(C15*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K15" s="22">
-        <f>D15*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L15" s="22">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="O15" s="22"/>
@@ -2056,13 +2056,13 @@
       <c r="B16" s="22">
         <v>5</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="37">
         <v>0.9</v>
       </c>
-      <c r="D16" s="42">
-        <v>1</v>
-      </c>
-      <c r="E16" s="42">
+      <c r="D16" s="37">
+        <v>1</v>
+      </c>
+      <c r="E16" s="37">
         <v>1</v>
       </c>
       <c r="F16" s="26">
@@ -2072,31 +2072,31 @@
         <v>0</v>
       </c>
       <c r="H16" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="11">
-        <f>ROUND(B16/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J16" s="22">
-        <f>ROUNDUP(C16*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="K16" s="22">
-        <f>D16*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L16" s="22">
         <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H16*$B$37</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M16" s="23">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N16" s="22">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>57</v>
       </c>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
@@ -2117,13 +2117,13 @@
       <c r="B17" s="22">
         <v>12</v>
       </c>
-      <c r="C17" s="42">
-        <v>1</v>
-      </c>
-      <c r="D17" s="42">
-        <v>1</v>
-      </c>
-      <c r="E17" s="42">
+      <c r="C17" s="37">
+        <v>1</v>
+      </c>
+      <c r="D17" s="37">
+        <v>1</v>
+      </c>
+      <c r="E17" s="37">
         <v>1</v>
       </c>
       <c r="F17" s="26">
@@ -2136,15 +2136,15 @@
         <v>1</v>
       </c>
       <c r="I17" s="11">
-        <f>ROUND(B17/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J17" s="22">
-        <f>ROUNDUP(C17*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K17" s="22">
-        <f>D17*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L17" s="22">
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="O17" s="22"/>
@@ -2178,13 +2178,13 @@
       <c r="B18" s="22">
         <v>12</v>
       </c>
-      <c r="C18" s="42">
-        <v>1</v>
-      </c>
-      <c r="D18" s="42">
-        <v>1</v>
-      </c>
-      <c r="E18" s="42">
+      <c r="C18" s="37">
+        <v>1</v>
+      </c>
+      <c r="D18" s="37">
+        <v>1</v>
+      </c>
+      <c r="E18" s="37">
         <v>1</v>
       </c>
       <c r="F18" s="26">
@@ -2197,15 +2197,15 @@
         <v>1</v>
       </c>
       <c r="I18" s="11">
-        <f>ROUND(B18/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J18" s="22">
-        <f>ROUNDUP(C18*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K18" s="22">
-        <f>D18*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L18" s="22">
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="O18" s="22"/>
@@ -2239,13 +2239,13 @@
       <c r="B19" s="22">
         <v>12</v>
       </c>
-      <c r="C19" s="42">
-        <v>1</v>
-      </c>
-      <c r="D19" s="42">
-        <v>1</v>
-      </c>
-      <c r="E19" s="42">
+      <c r="C19" s="37">
+        <v>1</v>
+      </c>
+      <c r="D19" s="37">
+        <v>1</v>
+      </c>
+      <c r="E19" s="37">
         <v>0</v>
       </c>
       <c r="F19" s="26">
@@ -2258,15 +2258,15 @@
         <v>1</v>
       </c>
       <c r="I19" s="11">
-        <f>ROUND(B19/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J19" s="22">
-        <f>ROUNDUP(C19*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K19" s="22">
-        <f>D19*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L19" s="22">
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="O19" s="22"/>
@@ -2300,13 +2300,13 @@
       <c r="B20" s="11">
         <v>12</v>
       </c>
-      <c r="C20" s="41">
-        <v>1</v>
-      </c>
-      <c r="D20" s="41">
-        <v>1</v>
-      </c>
-      <c r="E20" s="41">
+      <c r="C20" s="36">
+        <v>1</v>
+      </c>
+      <c r="D20" s="36">
+        <v>1</v>
+      </c>
+      <c r="E20" s="36">
         <v>1</v>
       </c>
       <c r="F20" s="26">
@@ -2316,31 +2316,31 @@
         <v>0</v>
       </c>
       <c r="H20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="11">
-        <f>ROUND(B20/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J20" s="11">
-        <f>ROUNDUP(C20*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K20" s="11">
-        <f>D20*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L20" s="11">
         <f>Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H20*$B$37</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M20" s="11">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
@@ -2361,14 +2361,14 @@
       <c r="B21" s="11">
         <v>12</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="36">
         <f>9/9</f>
         <v>1</v>
       </c>
-      <c r="D21" s="41">
-        <v>1</v>
-      </c>
-      <c r="E21" s="41">
+      <c r="D21" s="36">
+        <v>1</v>
+      </c>
+      <c r="E21" s="36">
         <v>1</v>
       </c>
       <c r="F21" s="26">
@@ -2381,15 +2381,15 @@
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <f>ROUND(B21/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J21" s="11">
-        <f>ROUNDUP(C21*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K21" s="11">
-        <f>D21*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L21" s="11">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="O21" s="11"/>
@@ -2423,13 +2423,13 @@
       <c r="B22" s="11">
         <v>11</v>
       </c>
-      <c r="C22" s="41">
-        <v>1</v>
-      </c>
-      <c r="D22" s="41">
-        <v>1</v>
-      </c>
-      <c r="E22" s="41">
+      <c r="C22" s="36">
+        <v>1</v>
+      </c>
+      <c r="D22" s="36">
+        <v>1</v>
+      </c>
+      <c r="E22" s="36">
         <v>1</v>
       </c>
       <c r="F22" s="26">
@@ -2442,15 +2442,15 @@
         <v>1</v>
       </c>
       <c r="I22" s="11">
-        <f>ROUND(B22/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J22" s="11">
-        <f>ROUNDUP(C22*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K22" s="11">
-        <f>D22*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L22" s="11">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="O22" s="11"/>
@@ -2484,13 +2484,13 @@
       <c r="B23" s="11">
         <v>11</v>
       </c>
-      <c r="C23" s="41">
-        <v>1</v>
-      </c>
-      <c r="D23" s="41">
-        <v>1</v>
-      </c>
-      <c r="E23" s="41">
+      <c r="C23" s="36">
+        <v>1</v>
+      </c>
+      <c r="D23" s="36">
+        <v>1</v>
+      </c>
+      <c r="E23" s="36">
         <v>0</v>
       </c>
       <c r="F23" s="26">
@@ -2503,15 +2503,15 @@
         <v>1</v>
       </c>
       <c r="I23" s="11">
-        <f>ROUND(B23/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J23" s="11">
-        <f>ROUNDUP(C23*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K23" s="11">
-        <f>D23*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L23" s="11">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="O23" s="11"/>
@@ -2545,13 +2545,13 @@
       <c r="B24" s="11">
         <v>12</v>
       </c>
-      <c r="C24" s="41">
-        <v>1</v>
-      </c>
-      <c r="D24" s="41">
-        <v>1</v>
-      </c>
-      <c r="E24" s="41">
+      <c r="C24" s="36">
+        <v>1</v>
+      </c>
+      <c r="D24" s="36">
+        <v>1</v>
+      </c>
+      <c r="E24" s="36">
         <v>1</v>
       </c>
       <c r="F24" s="26">
@@ -2564,15 +2564,15 @@
         <v>1</v>
       </c>
       <c r="I24" s="11">
-        <f>ROUND(B24/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J24" s="11">
-        <f>ROUNDUP(C24*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K24" s="11">
-        <f>D24*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L24" s="11">
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="O24" s="11"/>
@@ -2606,13 +2606,13 @@
       <c r="B25" s="11">
         <v>9</v>
       </c>
-      <c r="C25" s="41">
-        <v>1</v>
-      </c>
-      <c r="D25" s="41">
-        <v>1</v>
-      </c>
-      <c r="E25" s="41">
+      <c r="C25" s="36">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36">
+        <v>1</v>
+      </c>
+      <c r="E25" s="36">
         <v>1</v>
       </c>
       <c r="F25" s="26">
@@ -2625,15 +2625,15 @@
         <v>1</v>
       </c>
       <c r="I25" s="11">
-        <f>ROUND(B25/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J25" s="11">
-        <f>ROUNDUP(C25*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K25" s="11">
-        <f>D25*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L25" s="11">
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="O25" s="11"/>
@@ -2667,13 +2667,13 @@
       <c r="B26" s="11">
         <v>12</v>
       </c>
-      <c r="C26" s="41">
-        <v>1</v>
-      </c>
-      <c r="D26" s="41">
-        <v>1</v>
-      </c>
-      <c r="E26" s="41">
+      <c r="C26" s="36">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36">
+        <v>1</v>
+      </c>
+      <c r="E26" s="36">
         <v>1</v>
       </c>
       <c r="F26" s="26">
@@ -2686,15 +2686,15 @@
         <v>1</v>
       </c>
       <c r="I26" s="11">
-        <f>ROUND(B26/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J26" s="11">
-        <f>ROUNDUP(C26*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K26" s="11">
-        <f>D26*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L26" s="11">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="O26" s="11"/>
@@ -2728,13 +2728,13 @@
       <c r="B27" s="26">
         <v>6</v>
       </c>
-      <c r="C27" s="43">
-        <v>0</v>
-      </c>
-      <c r="D27" s="43">
-        <v>0</v>
-      </c>
-      <c r="E27" s="43">
+      <c r="C27" s="38">
+        <v>0</v>
+      </c>
+      <c r="D27" s="38">
+        <v>0</v>
+      </c>
+      <c r="E27" s="38">
         <v>0</v>
       </c>
       <c r="F27" s="26">
@@ -2747,15 +2747,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="11">
-        <f>ROUND(B27/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J27" s="26">
-        <f>ROUNDUP(C27*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="26">
-        <f>D27*$B$36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="33">
@@ -2789,13 +2789,13 @@
       <c r="B28" s="26">
         <v>12</v>
       </c>
-      <c r="C28" s="43">
-        <v>1</v>
-      </c>
-      <c r="D28" s="43">
-        <v>1</v>
-      </c>
-      <c r="E28" s="43">
+      <c r="C28" s="38">
+        <v>1</v>
+      </c>
+      <c r="D28" s="38">
+        <v>1</v>
+      </c>
+      <c r="E28" s="38">
         <v>1</v>
       </c>
       <c r="F28" s="26">
@@ -2808,15 +2808,15 @@
         <v>1</v>
       </c>
       <c r="I28" s="11">
-        <f>ROUND(B28/$B$32*$B$34,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J28" s="26">
-        <f>ROUNDUP(C28*$B$35,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K28" s="26">
-        <f>D28*$B$36</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L28" s="33">
@@ -2911,10 +2911,10 @@
       <c r="G33" s="3"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="O33" s="36" t="s">
+      <c r="O33" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="P33" s="36"/>
+      <c r="P33" s="39"/>
     </row>
     <row r="34" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">

--- a/БАРС/Баллы_431.xlsx
+++ b/БАРС/Баллы_431.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="19140" windowHeight="8496"/>
+    <workbookView xWindow="384" yWindow="180" windowWidth="19140" windowHeight="8436"/>
   </bookViews>
   <sheets>
     <sheet name="431" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -19,6 +19,999 @@
     <author>Иван Слеповичев</author>
   </authors>
   <commentList>
+    <comment ref="O5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое линейный конгруэнтный ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+В чем главные недостатки метода срединных квадратов?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какова общая задача для всех тестов ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое тест на следующий бит?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое стандартное равномерное распределение?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Основные требования к криптостойким ГПСЧ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое пороговый ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое «отводы» в РСОЛС?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Назовите ГПСЧ использующие для генерации вычислительно сложные задачи.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое тест кумулятивных сумм?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое универсальный статистический тест Маурера?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое примитивный многочлен?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+В чем суть критерия интервалов (без формул)?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое примитивный многочлен?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Назовите ГПСЧ, использующие алгоритмы потокового шифра</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое характеристический полином регистра сдвига с обратной линейной связью?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чем регистр сдвига с обратной связью по переносу отличается от РСЛОС?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое универсальный статистический тест Маурера?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое Регистр сдвига с обратной линейной связью?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что называют М-последовательностью?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какой максимальный период РСЛОС с примитивным характеристическим многочленом x^5+x^2+1?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какие источники энтропии могут быть использованы в ГПСЧ? 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какие источники энтропии могут быть использованы в ГПСЧ? </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+В чем суть частотного блочного теста?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какие классы генераторов случайных числе Вы знаете?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какова максимальная длина линейного конгруэнтного генератора ПСЧ с величиной модуля m?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое тест на следующий бит?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое псевдослучайное число?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+В чем главные недостатки ЛКГ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Какой ГПСЧ называется криптостойким?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какова максимальная длина последовательности ПСЧ для аддитивного генератора?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое метод Таусворта генерации ПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое случайное число?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое генератор случайных бит?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чем ГПСЧ на базе клеточного автомата отличается от РСЛОС?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+В чем главные недостатки метода срединных квадратов?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какой максимальный период РСЛОС с примитивным характеристическим многочленом x^5+x^2+1?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое генератор случайных бит?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое пятипараметрический метод генерации ПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что проверяется в критерии разбиений?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что называется ГСЧ с источником энтропии?</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H15" authorId="0">
       <text>
         <r>
@@ -40,6 +1033,414 @@
           </rPr>
           <t xml:space="preserve">
 Хорошие отчеты!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое «отводы» в РСОЛС?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какова максимальная длина последовательности ПСЧ для аддитивного генератора?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое примитивный многочлен?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое пороговый ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какой максимальный период РСЛОС с примитивным характеристическим многочленом x^5+x^2+1?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое линейный конгруэнтный ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое прореживаемый ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Основные требования к криптостойким ГПСЧ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какова общая задача для всех тестов ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какие методы генерации ПСЧ используются в алгоритме А5?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое эмпирические критерии оценивания случайных величин?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое тест кумулятивных сумм?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Назовите ГПСЧ, использующие алгоритмы потокового шифра</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Основные требования к криптостойким ГПСЧ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое «отводы» в РСОЛС?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое функция инициализации ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -114,6 +1515,558 @@
           <t xml:space="preserve">
 Нет одного отчета
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое псевдослучайное число?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Как используется хэш-функция для генерации ПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое пороговый ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое универсальный статистический тест Маурера?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Назовите основные компоненты функциональной модели ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Является ли алгоритм генерации ПСЧ «Вихрь Мерсенна» криптостойким?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какие проблемы приходится решать при реализации физического ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое аддитивный ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое тест на следующий бит?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что называют М-последовательностью?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Назовите хэш-функции подходящие для генерации криптостойкого ГПСЧ.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+В чем главные недостатки метода срединных квадратов?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое тест на следующий бит?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+В чем суть критерия хи-квадрат (без формул)?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое функция инициализации ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое тест на периодичность?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое пятипараметрический метод генерации ПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое тест на следующий бит?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое строка персонализации в ГПСЧ?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Какие основные параметры ГПСЧ используются в оценке его пригодности для применения?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Является ли алгоритм генерации ПСЧ «Вихрь Мерсенна» криптостойким?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что означает буква M в названии метода M-последовательности?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Что такое случайное число?</t>
         </r>
       </text>
     </comment>
@@ -332,7 +2285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,8 +2325,23 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +2351,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +2498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -640,6 +2614,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1419,22 +3399,34 @@
       </c>
       <c r="M5" s="11">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N5" s="11">
         <f>ROUND(SUM(I5:M5),0)</f>
-        <v>65</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="O5" s="44">
+        <v>5</v>
+      </c>
+      <c r="P5" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>2</v>
+      </c>
+      <c r="R5" s="44">
+        <v>2</v>
+      </c>
+      <c r="S5" s="44">
+        <v>1</v>
+      </c>
+      <c r="T5" s="44">
+        <v>5</v>
+      </c>
       <c r="U5" s="11"/>
       <c r="V5" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -1480,22 +3472,34 @@
       </c>
       <c r="M6" s="11">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N6" s="11">
         <f t="shared" ref="N6:N26" si="3">ROUND(SUM(I6:M6),0)</f>
-        <v>65</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="O6" s="44">
+        <v>5</v>
+      </c>
+      <c r="P6" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>5</v>
+      </c>
+      <c r="R6" s="44">
+        <v>4</v>
+      </c>
+      <c r="S6" s="44">
+        <v>3</v>
+      </c>
+      <c r="T6" s="44">
+        <v>3</v>
+      </c>
       <c r="U6" s="11"/>
       <c r="V6" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -1541,22 +3545,34 @@
       </c>
       <c r="M7" s="11">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N7" s="11">
         <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="O7" s="44">
+        <v>5</v>
+      </c>
+      <c r="P7" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>5</v>
+      </c>
+      <c r="R7" s="44">
+        <v>4</v>
+      </c>
+      <c r="S7" s="44">
+        <v>4</v>
+      </c>
+      <c r="T7" s="44">
+        <v>5</v>
+      </c>
       <c r="U7" s="11"/>
       <c r="V7" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1602,22 +3618,34 @@
       </c>
       <c r="M8" s="23">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N8" s="22">
         <f t="shared" ref="N8:N19" si="4">ROUND(SUM(I8:M8),0)</f>
-        <v>65</v>
-      </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+        <v>92</v>
+      </c>
+      <c r="O8" s="44">
+        <v>5</v>
+      </c>
+      <c r="P8" s="44">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>5</v>
+      </c>
+      <c r="R8" s="44">
+        <v>5</v>
+      </c>
+      <c r="S8" s="44">
+        <v>3</v>
+      </c>
+      <c r="T8" s="44">
+        <v>5</v>
+      </c>
       <c r="U8" s="22"/>
       <c r="V8" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1663,22 +3691,34 @@
         <v>10</v>
       </c>
       <c r="M9" s="23">
-        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <f ca="1">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N9" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="O9" s="44">
+        <v>1</v>
+      </c>
+      <c r="P9" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>1</v>
+      </c>
+      <c r="R9" s="44">
+        <v>1</v>
+      </c>
+      <c r="S9" s="44">
+        <v>1</v>
+      </c>
+      <c r="T9" s="44">
+        <v>1</v>
+      </c>
       <c r="U9" s="22"/>
       <c r="V9" s="22">
-        <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
+        <f ca="1">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>3</v>
       </c>
     </row>
@@ -1726,18 +3766,30 @@
       </c>
       <c r="M10" s="23">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N10" s="22">
         <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="O10" s="44">
+        <v>4</v>
+      </c>
+      <c r="P10" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>5</v>
+      </c>
+      <c r="R10" s="44">
+        <v>4</v>
+      </c>
+      <c r="S10" s="44">
+        <v>3</v>
+      </c>
+      <c r="T10" s="44">
+        <v>4</v>
+      </c>
       <c r="U10" s="22"/>
       <c r="V10" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
@@ -1787,18 +3839,30 @@
       </c>
       <c r="M11" s="23">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="O11" s="44">
+        <v>1</v>
+      </c>
+      <c r="P11" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>1</v>
+      </c>
+      <c r="R11" s="44">
+        <v>1</v>
+      </c>
+      <c r="S11" s="44">
+        <v>1</v>
+      </c>
+      <c r="T11" s="44">
+        <v>1</v>
+      </c>
       <c r="U11" s="22"/>
       <c r="V11" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
@@ -1848,22 +3912,34 @@
       </c>
       <c r="M12" s="23">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N12" s="22">
         <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+        <v>85</v>
+      </c>
+      <c r="O12" s="44">
+        <v>2</v>
+      </c>
+      <c r="P12" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="44">
+        <v>5</v>
+      </c>
+      <c r="R12" s="44">
+        <v>4</v>
+      </c>
+      <c r="S12" s="44">
+        <v>3</v>
+      </c>
+      <c r="T12" s="44">
+        <v>4</v>
+      </c>
       <c r="U12" s="22"/>
       <c r="V12" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -1909,22 +3985,34 @@
       </c>
       <c r="M13" s="23">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N13" s="22">
         <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+        <v>86</v>
+      </c>
+      <c r="O13" s="44">
+        <v>5</v>
+      </c>
+      <c r="P13" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="44">
+        <v>3</v>
+      </c>
+      <c r="R13" s="44">
+        <v>1</v>
+      </c>
+      <c r="S13" s="44">
+        <v>3</v>
+      </c>
+      <c r="T13" s="44">
+        <v>4</v>
+      </c>
       <c r="U13" s="22"/>
       <c r="V13" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1970,18 +4058,30 @@
       </c>
       <c r="M14" s="23">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N14" s="22">
         <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="O14" s="44">
+        <v>1</v>
+      </c>
+      <c r="P14" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="44">
+        <v>1</v>
+      </c>
+      <c r="R14" s="44">
+        <v>1</v>
+      </c>
+      <c r="S14" s="44">
+        <v>1</v>
+      </c>
+      <c r="T14" s="44">
+        <v>1</v>
+      </c>
       <c r="U14" s="22"/>
       <c r="V14" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
@@ -2031,22 +4131,34 @@
       </c>
       <c r="M15" s="23">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N15" s="22">
         <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
+        <v>91</v>
+      </c>
+      <c r="O15" s="44">
+        <v>2</v>
+      </c>
+      <c r="P15" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>1</v>
+      </c>
+      <c r="R15" s="44">
+        <v>5</v>
+      </c>
+      <c r="S15" s="44">
+        <v>5</v>
+      </c>
+      <c r="T15" s="44">
+        <v>4</v>
+      </c>
       <c r="U15" s="22"/>
       <c r="V15" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -2092,22 +4204,34 @@
       </c>
       <c r="M16" s="23">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N16" s="22">
         <f t="shared" si="4"/>
-        <v>57</v>
-      </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
+        <v>86</v>
+      </c>
+      <c r="O16" s="44">
+        <v>5</v>
+      </c>
+      <c r="P16" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="44">
+        <v>5</v>
+      </c>
+      <c r="R16" s="44">
+        <v>5</v>
+      </c>
+      <c r="S16" s="44">
+        <v>5</v>
+      </c>
+      <c r="T16" s="44">
+        <v>4</v>
+      </c>
       <c r="U16" s="22"/>
       <c r="V16" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -2153,22 +4277,34 @@
       </c>
       <c r="M17" s="23">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N17" s="22">
         <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+        <v>86</v>
+      </c>
+      <c r="O17" s="44">
+        <v>4</v>
+      </c>
+      <c r="P17" s="44">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="44">
+        <v>2</v>
+      </c>
+      <c r="R17" s="44">
+        <v>5</v>
+      </c>
+      <c r="S17" s="44">
+        <v>3</v>
+      </c>
+      <c r="T17" s="44">
+        <v>4</v>
+      </c>
       <c r="U17" s="22"/>
       <c r="V17" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -2214,18 +4350,30 @@
       </c>
       <c r="M18" s="23">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N18" s="22">
         <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="O18" s="44">
+        <v>1</v>
+      </c>
+      <c r="P18" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="44">
+        <v>1</v>
+      </c>
+      <c r="R18" s="44">
+        <v>1</v>
+      </c>
+      <c r="S18" s="44">
+        <v>1</v>
+      </c>
+      <c r="T18" s="44">
+        <v>1</v>
+      </c>
       <c r="U18" s="22"/>
       <c r="V18" s="22">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
@@ -2274,22 +4422,34 @@
         <v>10</v>
       </c>
       <c r="M19" s="23">
-        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <f ca="1">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N19" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
+      <c r="O19" s="44">
+        <v>1</v>
+      </c>
+      <c r="P19" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="44">
+        <v>1</v>
+      </c>
+      <c r="R19" s="44">
+        <v>1</v>
+      </c>
+      <c r="S19" s="44">
+        <v>1</v>
+      </c>
+      <c r="T19" s="44">
+        <v>1</v>
+      </c>
       <c r="U19" s="22"/>
       <c r="V19" s="22">
-        <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
+        <f ca="1">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>3</v>
       </c>
     </row>
@@ -2336,18 +4496,30 @@
       </c>
       <c r="M20" s="11">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N20" s="11">
         <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="O20" s="44">
+        <v>1</v>
+      </c>
+      <c r="P20" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="44">
+        <v>1</v>
+      </c>
+      <c r="R20" s="44">
+        <v>1</v>
+      </c>
+      <c r="S20" s="44">
+        <v>1</v>
+      </c>
+      <c r="T20" s="44">
+        <v>1</v>
+      </c>
       <c r="U20" s="11"/>
       <c r="V20" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
@@ -2398,22 +4570,34 @@
       </c>
       <c r="M21" s="11">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N21" s="11">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="O21" s="44">
+        <v>1</v>
+      </c>
+      <c r="P21" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="44">
+        <v>5</v>
+      </c>
+      <c r="R21" s="44">
+        <v>4</v>
+      </c>
+      <c r="S21" s="44">
+        <v>5</v>
+      </c>
+      <c r="T21" s="44">
+        <v>5</v>
+      </c>
       <c r="U21" s="11"/>
       <c r="V21" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -2459,22 +4643,34 @@
       </c>
       <c r="M22" s="11">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N22" s="11">
         <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="O22" s="44">
+        <v>2</v>
+      </c>
+      <c r="P22" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="44">
+        <v>4</v>
+      </c>
+      <c r="R22" s="44">
+        <v>3</v>
+      </c>
+      <c r="S22" s="44">
+        <v>5</v>
+      </c>
+      <c r="T22" s="44">
+        <v>4</v>
+      </c>
       <c r="U22" s="11"/>
       <c r="V22" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -2519,22 +4715,34 @@
         <v>10</v>
       </c>
       <c r="M23" s="11">
-        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <f ca="1">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>64</v>
       </c>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
+      <c r="O23" s="44">
+        <v>1</v>
+      </c>
+      <c r="P23" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="44">
+        <v>1</v>
+      </c>
+      <c r="R23" s="44">
+        <v>1</v>
+      </c>
+      <c r="S23" s="44">
+        <v>1</v>
+      </c>
+      <c r="T23" s="44">
+        <v>1</v>
+      </c>
       <c r="U23" s="11"/>
       <c r="V23" s="11">
-        <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
+        <f ca="1">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>3</v>
       </c>
     </row>
@@ -2581,18 +4789,30 @@
       </c>
       <c r="M24" s="11">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N24" s="11">
         <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="O24" s="44">
+        <v>1</v>
+      </c>
+      <c r="P24" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="44">
+        <v>1</v>
+      </c>
+      <c r="R24" s="44">
+        <v>1</v>
+      </c>
+      <c r="S24" s="44">
+        <v>1</v>
+      </c>
+      <c r="T24" s="44">
+        <v>1</v>
+      </c>
       <c r="U24" s="11"/>
       <c r="V24" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
@@ -2642,22 +4862,34 @@
       </c>
       <c r="M25" s="11">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N25" s="11">
         <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="O25" s="44">
+        <v>3</v>
+      </c>
+      <c r="P25" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="44">
+        <v>2</v>
+      </c>
+      <c r="R25" s="44">
+        <v>4</v>
+      </c>
+      <c r="S25" s="44">
+        <v>3</v>
+      </c>
+      <c r="T25" s="44">
+        <v>3</v>
+      </c>
       <c r="U25" s="11"/>
       <c r="V25" s="11">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -2702,22 +4934,34 @@
         <v>10</v>
       </c>
       <c r="M26" s="11">
-        <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <f ca="1">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
         <v>0</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
+      <c r="O26" s="44">
+        <v>1</v>
+      </c>
+      <c r="P26" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="44">
+        <v>1</v>
+      </c>
+      <c r="R26" s="44">
+        <v>1</v>
+      </c>
+      <c r="S26" s="44">
+        <v>1</v>
+      </c>
+      <c r="T26" s="44">
+        <v>1</v>
+      </c>
       <c r="U26" s="11"/>
       <c r="V26" s="11">
-        <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
+        <f ca="1">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>3</v>
       </c>
     </row>
@@ -2825,22 +5069,34 @@
       </c>
       <c r="M28" s="33">
         <f>SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N28" s="26">
         <f>ROUND(SUM(I28:M28),0)</f>
-        <v>65</v>
-      </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
+        <v>90</v>
+      </c>
+      <c r="O28" s="45">
+        <v>4</v>
+      </c>
+      <c r="P28" s="45">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="45">
+        <v>2</v>
+      </c>
+      <c r="R28" s="45">
+        <v>5</v>
+      </c>
+      <c r="S28" s="45">
+        <v>5</v>
+      </c>
+      <c r="T28" s="45">
+        <v>5</v>
+      </c>
       <c r="U28" s="26"/>
       <c r="V28" s="26">
         <f>IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -2933,8 +5189,8 @@
         <v>38</v>
       </c>
       <c r="P34" s="29">
-        <f>COUNTIFS(Таблица3[Оценка],"=5")</f>
-        <v>0</v>
+        <f ca="1">COUNTIFS(Таблица3[Оценка],"=5")</f>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2954,8 +5210,8 @@
         <v>39</v>
       </c>
       <c r="P35" s="29">
-        <f>COUNTIFS(Таблица3[Оценка],"=4")</f>
-        <v>0</v>
+        <f ca="1">COUNTIFS(Таблица3[Оценка],"=4")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2975,8 +5231,8 @@
         <v>40</v>
       </c>
       <c r="P36" s="29">
-        <f>COUNTIFS(Таблица3[Оценка],"=3")</f>
-        <v>21</v>
+        <f ca="1">COUNTIFS(Таблица3[Оценка],"=3")</f>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3000,8 +5256,8 @@
         <v>41</v>
       </c>
       <c r="P37" s="29">
-        <f>COUNTIFS(Таблица3[Оценка],"=2")</f>
-        <v>3</v>
+        <f ca="1">COUNTIFS(Таблица3[Оценка],"=2")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">

--- a/БАРС/Баллы_431.xlsx
+++ b/БАРС/Баллы_431.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t xml:space="preserve">Дата:</t>
   </si>
@@ -101,6 +101,93 @@
   </si>
   <si>
     <t xml:space="preserve">Оценка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богатова Екатерина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бочкарев Матвей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гендляр Сергей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дунаев Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дусалиев Тахир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ежова Елена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Змеева Вероника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванова Ксения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кайдышева Дарья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костенко Владислав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кузнецов Егор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курдупов Никита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кухта Вероника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Логинов Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Муха Семён</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мызников Сегрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Назаров Кирилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Романов Роман</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сенокосов Владислав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергеев Сергей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сметанкин Никита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Торопова Татьяна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ухов Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фельк Елизавета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цыпин Андрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Черватюк Сергей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шашков Николай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Щербакова Снежана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яшин Максим</t>
   </si>
   <si>
     <t xml:space="preserve">Всего лекций:</t>
@@ -155,13 +242,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +286,19 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -329,176 +428,160 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -592,8 +675,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A43:C47" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A43:C47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A47:C51" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A47:C51"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Оценка"/>
     <tableColumn id="2" name="от"/>
@@ -811,176 +894,178 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="14" style="0" width="13.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="1" width="16.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="14" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="13.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="n">
-        <f aca="false">ROUND(B5/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="n">
-        <f aca="false">ROUNDUP(C5*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <f aca="false">D5*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="9" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H5*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="9" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="14" t="n">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="n">
+        <f aca="false">ROUND(B5/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <f aca="false">ROUNDUP(C5*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <f aca="false">D5*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H5*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
         <f aca="false">ROUND(SUM(I5:M5),0)</f>
         <v>0</v>
       </c>
@@ -990,39 +1075,41 @@
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="n">
-        <f aca="false">ROUND(B6/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="n">
-        <f aca="false">ROUNDUP(C6*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <f aca="false">D6*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="9" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H6*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="9" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="14" t="n">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="n">
+        <f aca="false">ROUND(B6/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <f aca="false">ROUNDUP(C6*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <f aca="false">D6*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H6*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
         <f aca="false">ROUND(SUM(I6:M6),0)</f>
         <v>0</v>
       </c>
@@ -1032,39 +1119,41 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="n">
-        <f aca="false">ROUND(B7/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="n">
-        <f aca="false">ROUNDUP(C7*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <f aca="false">D7*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="9" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H7*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="9" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="14" t="n">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="n">
+        <f aca="false">ROUND(B7/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <f aca="false">ROUNDUP(C7*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <f aca="false">D7*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H7*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
         <f aca="false">ROUND(SUM(I7:M7),0)</f>
         <v>0</v>
       </c>
@@ -1074,39 +1163,41 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="9" t="n">
-        <f aca="false">ROUND(B8/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="n">
-        <f aca="false">ROUNDUP(C8*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <f aca="false">D8*$B$36</f>
+      <c r="I8" s="10" t="n">
+        <f aca="false">ROUND(B8/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <f aca="false">ROUNDUP(C8*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <f aca="false">D8*$B$40</f>
         <v>0</v>
       </c>
       <c r="L8" s="16" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H8*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="18" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="14" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H8*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="16" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
         <f aca="false">ROUND(SUM(I8:M8),0)</f>
         <v>0</v>
       </c>
@@ -1120,35 +1211,37 @@
       <c r="V8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="9" t="n">
-        <f aca="false">ROUND(B9/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="n">
-        <f aca="false">ROUNDUP(C9*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <f aca="false">D9*$B$36</f>
+      <c r="I9" s="10" t="n">
+        <f aca="false">ROUND(B9/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <f aca="false">ROUNDUP(C9*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <f aca="false">D9*$B$40</f>
         <v>0</v>
       </c>
       <c r="L9" s="16" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H9*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="18" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="14" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H9*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="16" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
         <f aca="false">ROUND(SUM(I9:M9),0)</f>
         <v>0</v>
       </c>
@@ -1162,35 +1255,37 @@
       <c r="V9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="9" t="n">
-        <f aca="false">ROUND(B10/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="n">
-        <f aca="false">ROUNDUP(C10*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <f aca="false">D10*$B$36</f>
+      <c r="I10" s="10" t="n">
+        <f aca="false">ROUND(B10/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <f aca="false">ROUNDUP(C10*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="n">
+        <f aca="false">D10*$B$40</f>
         <v>0</v>
       </c>
       <c r="L10" s="16" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H10*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="18" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="14" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H10*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="16" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
         <f aca="false">ROUND(SUM(I10:M10),0)</f>
         <v>0</v>
       </c>
@@ -1204,35 +1299,37 @@
       <c r="V10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="9" t="n">
-        <f aca="false">ROUND(B11/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="n">
-        <f aca="false">ROUNDUP(C11*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <f aca="false">D11*$B$36</f>
+      <c r="I11" s="10" t="n">
+        <f aca="false">ROUND(B11/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="n">
+        <f aca="false">ROUNDUP(C11*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="n">
+        <f aca="false">D11*$B$40</f>
         <v>0</v>
       </c>
       <c r="L11" s="16" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H11*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="18" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="14" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H11*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="16" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="n">
         <f aca="false">ROUND(SUM(I11:M11),0)</f>
         <v>0</v>
       </c>
@@ -1246,35 +1343,37 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="9" t="n">
-        <f aca="false">ROUND(B12/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="n">
-        <f aca="false">ROUNDUP(C12*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="n">
-        <f aca="false">D12*$B$36</f>
+      <c r="I12" s="10" t="n">
+        <f aca="false">ROUND(B12/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <f aca="false">ROUNDUP(C12*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <f aca="false">D12*$B$40</f>
         <v>0</v>
       </c>
       <c r="L12" s="16" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H12*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="18" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="14" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H12*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="16" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="n">
         <f aca="false">ROUND(SUM(I12:M12),0)</f>
         <v>0</v>
       </c>
@@ -1288,35 +1387,37 @@
       <c r="V12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="9" t="n">
-        <f aca="false">ROUND(B13/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="9" t="n">
-        <f aca="false">ROUNDUP(C13*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <f aca="false">D13*$B$36</f>
+      <c r="I13" s="10" t="n">
+        <f aca="false">ROUND(B13/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <f aca="false">ROUNDUP(C13*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <f aca="false">D13*$B$40</f>
         <v>0</v>
       </c>
       <c r="L13" s="16" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H13*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="18" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="14" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H13*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="16" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="n">
         <f aca="false">ROUND(SUM(I13:M13),0)</f>
         <v>0</v>
       </c>
@@ -1330,35 +1431,37 @@
       <c r="V13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="9" t="n">
-        <f aca="false">ROUND(B14/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="9" t="n">
-        <f aca="false">ROUNDUP(C14*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <f aca="false">D14*$B$36</f>
+      <c r="I14" s="10" t="n">
+        <f aca="false">ROUND(B14/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="n">
+        <f aca="false">ROUNDUP(C14*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <f aca="false">D14*$B$40</f>
         <v>0</v>
       </c>
       <c r="L14" s="16" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H14*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="18" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="14" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H14*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="16" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="n">
         <f aca="false">ROUND(SUM(I14:M14),0)</f>
         <v>0</v>
       </c>
@@ -1372,35 +1475,37 @@
       <c r="V14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="9" t="n">
-        <f aca="false">ROUND(B15/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="n">
-        <f aca="false">ROUNDUP(C15*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <f aca="false">D15*$B$36</f>
+      <c r="I15" s="10" t="n">
+        <f aca="false">ROUND(B15/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="n">
+        <f aca="false">ROUNDUP(C15*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <f aca="false">D15*$B$40</f>
         <v>0</v>
       </c>
       <c r="L15" s="16" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H15*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="18" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="14" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H15*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="16" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="n">
         <f aca="false">ROUND(SUM(I15:M15),0)</f>
         <v>0</v>
       </c>
@@ -1414,35 +1519,37 @@
       <c r="V15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="9" t="n">
-        <f aca="false">ROUND(B16/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <f aca="false">ROUNDUP(C16*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <f aca="false">D16*$B$36</f>
+      <c r="I16" s="10" t="n">
+        <f aca="false">ROUND(B16/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <f aca="false">ROUNDUP(C16*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <f aca="false">D16*$B$40</f>
         <v>0</v>
       </c>
       <c r="L16" s="16" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H16*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="18" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="14" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H16*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="16" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="n">
         <f aca="false">ROUND(SUM(I16:M16),0)</f>
         <v>0</v>
       </c>
@@ -1456,35 +1563,37 @@
       <c r="V16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="9" t="n">
-        <f aca="false">ROUND(B17/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <f aca="false">ROUNDUP(C17*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <f aca="false">D17*$B$36</f>
+      <c r="I17" s="10" t="n">
+        <f aca="false">ROUND(B17/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <f aca="false">ROUNDUP(C17*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <f aca="false">D17*$B$40</f>
         <v>0</v>
       </c>
       <c r="L17" s="16" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H17*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="18" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="14" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H17*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="16" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="n">
         <f aca="false">ROUND(SUM(I17:M17),0)</f>
         <v>0</v>
       </c>
@@ -1498,35 +1607,37 @@
       <c r="V17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="9" t="n">
-        <f aca="false">ROUND(B18/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <f aca="false">ROUNDUP(C18*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <f aca="false">D18*$B$36</f>
+      <c r="I18" s="10" t="n">
+        <f aca="false">ROUND(B18/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <f aca="false">ROUNDUP(C18*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="10" t="n">
+        <f aca="false">D18*$B$40</f>
         <v>0</v>
       </c>
       <c r="L18" s="16" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H18*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="18" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="14" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H18*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="16" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="n">
         <f aca="false">ROUND(SUM(I18:M18),0)</f>
         <v>0</v>
       </c>
@@ -1540,35 +1651,37 @@
       <c r="V18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="9" t="n">
-        <f aca="false">ROUND(B19/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="n">
-        <f aca="false">ROUNDUP(C19*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <f aca="false">D19*$B$36</f>
+      <c r="I19" s="10" t="n">
+        <f aca="false">ROUND(B19/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <f aca="false">ROUNDUP(C19*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <f aca="false">D19*$B$40</f>
         <v>0</v>
       </c>
       <c r="L19" s="16" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H19*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="18" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="14" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H19*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="16" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="n">
         <f aca="false">ROUND(SUM(I19:M19),0)</f>
         <v>0</v>
       </c>
@@ -1582,35 +1695,37 @@
       <c r="V19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="n">
-        <f aca="false">ROUND(B20/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <f aca="false">ROUNDUP(C20*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <f aca="false">D20*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="9" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H20*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="9" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="14" t="n">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10" t="n">
+        <f aca="false">ROUND(B20/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="n">
+        <f aca="false">ROUNDUP(C20*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <f aca="false">D20*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="10" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H20*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="n">
         <f aca="false">ROUND(SUM(I20:M20),0)</f>
         <v>0</v>
       </c>
@@ -1620,39 +1735,41 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="n">
-        <f aca="false">ROUND(B21/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <f aca="false">ROUNDUP(C21*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <f aca="false">D21*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="9" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H21*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="9" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="14" t="n">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10" t="n">
+        <f aca="false">ROUND(B21/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <f aca="false">ROUNDUP(C21*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <f aca="false">D21*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="10" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H21*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="n">
         <f aca="false">ROUND(SUM(I21:M21),0)</f>
         <v>0</v>
       </c>
@@ -1662,39 +1779,41 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9" t="n">
-        <f aca="false">ROUND(B22/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <f aca="false">ROUNDUP(C22*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <f aca="false">D22*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="9" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H22*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="9" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="14" t="n">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="n">
+        <f aca="false">ROUND(B22/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="n">
+        <f aca="false">ROUNDUP(C22*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <f aca="false">D22*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="10" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H22*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="n">
         <f aca="false">ROUND(SUM(I22:M22),0)</f>
         <v>0</v>
       </c>
@@ -1704,39 +1823,41 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="n">
-        <f aca="false">ROUND(B23/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <f aca="false">ROUNDUP(C23*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <f aca="false">D23*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="9" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H23*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="9" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="14" t="n">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="n">
+        <f aca="false">ROUND(B23/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <f aca="false">ROUNDUP(C23*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <f aca="false">D23*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="10" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H23*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="2" t="n">
         <f aca="false">ROUND(SUM(I23:M23),0)</f>
         <v>0</v>
       </c>
@@ -1746,39 +1867,41 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="10"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="n">
-        <f aca="false">ROUND(B24/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="9" t="n">
-        <f aca="false">ROUNDUP(C24*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <f aca="false">D24*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="9" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H24*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="9" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="14" t="n">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="n">
+        <f aca="false">ROUND(B24/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="n">
+        <f aca="false">ROUNDUP(C24*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <f aca="false">D24*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="10" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H24*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="n">
         <f aca="false">ROUND(SUM(I24:M24),0)</f>
         <v>0</v>
       </c>
@@ -1788,39 +1911,41 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="n">
-        <f aca="false">ROUND(B25/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="9" t="n">
-        <f aca="false">ROUNDUP(C25*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <f aca="false">D25*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="9" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H25*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="9" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="14" t="n">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10" t="n">
+        <f aca="false">ROUND(B25/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="10" t="n">
+        <f aca="false">ROUNDUP(C25*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="10" t="n">
+        <f aca="false">D25*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="10" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H25*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="n">
         <f aca="false">ROUND(SUM(I25:M25),0)</f>
         <v>0</v>
       </c>
@@ -1830,39 +1955,41 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="n">
-        <f aca="false">ROUND(B26/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="9" t="n">
-        <f aca="false">ROUNDUP(C26*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="9" t="n">
-        <f aca="false">D26*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="9" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H26*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="9" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="14" t="n">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="n">
+        <f aca="false">ROUND(B26/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10" t="n">
+        <f aca="false">ROUNDUP(C26*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="10" t="n">
+        <f aca="false">D26*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="10" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H26*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="n">
         <f aca="false">ROUND(SUM(I26:M26),0)</f>
         <v>0</v>
       </c>
@@ -1872,330 +1999,529 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="9" t="n">
-        <f aca="false">ROUND(B27/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="9" t="n">
-        <f aca="false">ROUNDUP(C27*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <f aca="false">D27*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="21" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H27*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="9" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="14" t="n">
+      <c r="A27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="10" t="n">
+        <f aca="false">ROUND(B27/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="n">
+        <f aca="false">ROUNDUP(C27*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <f aca="false">D27*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H27*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="n">
         <f aca="false">ROUND(SUM(I27:M27),0)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="9" t="n">
-        <f aca="false">ROUND(B28/$B$32*$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="9" t="n">
-        <f aca="false">ROUNDUP(C28*$B$35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="9" t="n">
-        <f aca="false">D28*$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="21" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$37+Таблица3[[#This Row],[Работа на занятиях]]*$D$37+ H28*$B$37</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="9" t="n">
-        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="14" t="n">
+      <c r="A28" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="10" t="n">
+        <f aca="false">ROUND(B28/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="10" t="n">
+        <f aca="false">ROUNDUP(C28*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="10" t="n">
+        <f aca="false">D28*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H28*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="n">
         <f aca="false">ROUND(SUM(I28:M28),0)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10" t="n">
+        <f aca="false">ROUND(B29/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="10" t="n">
+        <f aca="false">ROUNDUP(C29*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="10" t="n">
+        <f aca="false">D29*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H29*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <f aca="false">ROUND(SUM(I29:M29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10" t="n">
+        <f aca="false">ROUND(B30/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="n">
+        <f aca="false">ROUNDUP(C30*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="10" t="n">
+        <f aca="false">D30*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H30*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <f aca="false">ROUND(SUM(I30:M30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10" t="n">
+        <f aca="false">ROUND(B31/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="n">
+        <f aca="false">ROUNDUP(C31*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="10" t="n">
+        <f aca="false">D31*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H31*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <f aca="false">ROUND(SUM(I31:M31),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="24" t="n">
+      <c r="A32" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10" t="n">
+        <f aca="false">ROUND(B32/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="n">
+        <f aca="false">ROUNDUP(C32*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="10" t="n">
+        <f aca="false">D32*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H32*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <f aca="false">ROUND(SUM(I32:M32),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10" t="n">
+        <f aca="false">ROUND(B33/$B$36*$B$38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="10" t="n">
+        <f aca="false">ROUNDUP(C33*$B$39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="10" t="n">
+        <f aca="false">D33*$B$40</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H33*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="10" t="n">
+        <f aca="false">SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]])</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <f aca="false">ROUND(SUM(I33:M33),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="C32" s="23" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="s">
+      <c r="C36" s="21" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="O33" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33" s="27"/>
-    </row>
-    <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="O37" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="P37" s="25"/>
+    </row>
+    <row r="38" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="29" t="n">
+      <c r="B38" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="O34" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" s="30" t="n">
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="O38" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" s="28" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=5")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="32" t="n">
+    <row r="39" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="27" t="n">
         <v>25</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="33"/>
-      <c r="O35" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="P35" s="30" t="n">
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="O39" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" s="28" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=4")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="32" t="n">
+    <row r="40" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="27" t="n">
         <v>20</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="O36" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="P36" s="30" t="n">
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="O40" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" s="28" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=3")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="32" t="n">
+    <row r="41" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="C37" s="32" t="n">
+      <c r="C41" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D37" s="32" t="n">
+      <c r="D41" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="O37" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P37" s="30" t="n">
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="O41" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="P41" s="28" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=2")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="32" t="n">
+    <row r="42" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="27" t="n">
         <v>30</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="34" t="s">
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="38" t="n">
+      <c r="B47" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="34" t="n">
         <v>86</v>
       </c>
-      <c r="C44" s="39" t="n">
+      <c r="C48" s="35" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="38" t="n">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="34" t="n">
         <v>76</v>
       </c>
-      <c r="C45" s="39" t="n">
+      <c r="C49" s="35" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="38" t="n">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="34" t="n">
         <v>60</v>
       </c>
-      <c r="C46" s="39" t="n">
+      <c r="C50" s="35" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="42" t="n">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="38" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2203,7 +2529,7 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O37:P37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/БАРС/Баллы_431.xlsx
+++ b/БАРС/Баллы_431.xlsx
@@ -243,7 +243,7 @@
   <fonts count="6">
     <font>
       <sz val="11.000000"/>
-      <color theme="1"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -253,13 +253,13 @@
     <font>
       <b/>
       <sz val="11.000000"/>
-      <color theme="1"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="18.000000"/>
-      <color theme="1"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -268,7 +268,7 @@
     </font>
     <font>
       <sz val="10.000000"/>
-      <color theme="1"/>
+      <color indexed="64"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -281,7 +281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39989999999999998"/>
+        <fgColor rgb="FFC3D69B"/>
         <bgColor indexed="47"/>
       </patternFill>
     </fill>
@@ -430,7 +430,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -489,10 +489,6 @@
     </xf>
     <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -908,9 +904,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -948,9 +944,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
       </a:majorFont>
@@ -970,16 +966,19 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -990,16 +989,19 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1007,14 +1009,23 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1050,42 +1061,12 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1100,15 +1081,15 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" zoomScale="110" workbookViewId="0">
+      <selection activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="37.670000000000002"/>
     <col customWidth="1" min="2" max="2" style="1" width="10.44"/>
-    <col customWidth="1" min="3" max="3" style="1" width="9.8800000000000008"/>
+    <col customWidth="1" min="3" max="3" style="1" width="9.8699999999999992"/>
     <col customWidth="1" min="4" max="4" style="1" width="11.33"/>
     <col customWidth="1" min="5" max="5" style="1" width="10.44"/>
     <col customWidth="1" min="6" max="8" style="1" width="11.33"/>
@@ -1242,15 +1223,27 @@
       <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I9" si="0">ROUND(B5/$B$36*$B$38,0)</f>
         <v>0</v>
@@ -1282,21 +1275,32 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
     </row>
     <row r="6" ht="13.800000000000001">
       <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1328,21 +1332,32 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
     </row>
     <row r="7" ht="13.800000000000001">
       <c r="A7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1374,21 +1389,32 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
     </row>
     <row r="8" ht="13.800000000000001">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1420,32 +1446,43 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
     </row>
     <row r="9" ht="13.800000000000001">
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L9" s="2">
         <f>Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H9*$B$41</f>
@@ -1457,7 +1494,7 @@
       </c>
       <c r="N9" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1466,32 +1503,43 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
     </row>
     <row r="10" ht="13.800000000000001">
       <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
       <c r="I10" s="2">
         <f t="shared" ref="I10:I33" si="4">ROUND(B10/$B$36*$B$38,0)</f>
         <v>0</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" ref="J10:J33" si="5">ROUNDUP(C10*$B$39,0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" ref="K10:K33" si="6">D10*$B$40</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2">
         <f>Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H10*$B$41</f>
@@ -1503,7 +1551,7 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" ref="N10:N33" si="7">ROUND(SUM(I10:M10),0)</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1512,32 +1560,43 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
     </row>
     <row r="11" ht="13.800000000000001">
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2">
         <f>Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H11*$B$41</f>
@@ -1549,7 +1608,7 @@
       </c>
       <c r="N11" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1558,21 +1617,32 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
     </row>
     <row r="12" ht="13.800000000000001">
       <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1604,32 +1674,43 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
     </row>
     <row r="13" ht="13.800000000000001">
       <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
       <c r="I13" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L13" s="2">
         <f>Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H13*$B$41</f>
@@ -1641,7 +1722,7 @@
       </c>
       <c r="N13" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -1650,21 +1731,32 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
     </row>
     <row r="14" ht="13.800000000000001">
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
       <c r="I14" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1696,21 +1788,32 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
     </row>
     <row r="15" ht="13.800000000000001">
       <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
       <c r="I15" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1742,21 +1845,32 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
     </row>
     <row r="16" ht="13.800000000000001">
       <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
       <c r="I16" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1788,19 +1902,30 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
     </row>
     <row r="17" ht="13.800000000000001">
       <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
       <c r="I17" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1832,19 +1957,30 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
     </row>
     <row r="18" ht="13.800000000000001">
       <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
       <c r="I18" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1876,32 +2012,43 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
     </row>
     <row r="19" ht="13.800000000000001">
       <c r="A19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
       <c r="I19" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L19" s="2">
         <f>Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H19*$B$41</f>
@@ -1913,7 +2060,7 @@
       </c>
       <c r="N19" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -1922,21 +2069,32 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
     </row>
     <row r="20" ht="13.800000000000001">
       <c r="A20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
       <c r="I20" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1968,21 +2126,32 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
     </row>
     <row r="21" ht="13.800000000000001">
       <c r="A21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
       <c r="I21" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2014,21 +2183,32 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
     </row>
     <row r="22" ht="13.800000000000001">
       <c r="A22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
       <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
       <c r="I22" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2060,32 +2240,43 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
     </row>
     <row r="23" ht="13.800000000000001">
       <c r="A23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
       <c r="I23" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" s="2">
         <f>Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H23*$B$41</f>
@@ -2097,7 +2288,7 @@
       </c>
       <c r="N23" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -2106,21 +2297,32 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
     </row>
     <row r="24" ht="13.800000000000001">
       <c r="A24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
       <c r="I24" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2152,32 +2354,43 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
     </row>
     <row r="25" ht="13.800000000000001">
       <c r="A25" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
       <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
       <c r="I25" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L25" s="2">
         <f>Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H25*$B$41</f>
@@ -2189,7 +2402,7 @@
       </c>
       <c r="N25" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2198,19 +2411,30 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
     </row>
     <row r="26" ht="13.800000000000001">
       <c r="A26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
       <c r="I26" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2242,21 +2466,32 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
     </row>
     <row r="27" ht="13.800000000000001">
       <c r="A27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
       <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
       <c r="I27" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2293,13 +2528,25 @@
       <c r="A28" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
       <c r="I28" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2332,19 +2579,31 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" ht="13.800000000000001">
+    <row r="29" ht="14.9">
       <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0</v>
+      </c>
       <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
       <c r="I29" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2376,21 +2635,32 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" ht="13.800000000000001">
+    </row>
+    <row r="30" ht="14.9">
       <c r="A30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0</v>
+      </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
       <c r="I30" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2422,21 +2692,32 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-    </row>
-    <row r="31" ht="13.800000000000001">
+    </row>
+    <row r="31" ht="14.9">
       <c r="A31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
       <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
       <c r="I31" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2468,19 +2749,30 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
     </row>
     <row r="32" ht="13.800000000000001">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0</v>
+      </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
       <c r="I32" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2512,21 +2804,32 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-    </row>
-    <row r="33" ht="13.800000000000001">
+    </row>
+    <row r="33" ht="14.9">
       <c r="A33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
       <c r="F33" s="2">
         <v>1</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
       <c r="I33" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2558,10 +2861,8 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
     </row>
     <row r="34" ht="13.800000000000001">
-      <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2582,198 +2883,175 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
     </row>
     <row r="35" ht="13.800000000000001"/>
     <row r="36" ht="13.800000000000001">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="18">
         <v>14</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>14</v>
       </c>
     </row>
     <row r="37" ht="13.800000000000001">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="O37" s="21" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="O37" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="P37" s="21"/>
+      <c r="P37" s="20"/>
     </row>
     <row r="38" ht="27" customHeight="1">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="22">
         <v>10</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="O38" s="25" t="s">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="O38" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="P38" s="24">
+      <c r="P38" s="23">
         <f>COUNTIFS(Таблица3[Оценка],"=5")</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" ht="27" customHeight="1">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="22">
         <v>25</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="O39" s="25" t="s">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="O39" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P39" s="24">
+      <c r="P39" s="23">
         <f>COUNTIFS(Таблица3[Оценка],"=4")</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" ht="27" customHeight="1">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="22">
         <v>20</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="O40" s="25" t="s">
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="O40" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="P40" s="24">
+      <c r="P40" s="23">
         <f>COUNTIFS(Таблица3[Оценка],"=3")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" ht="27" customHeight="1">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="23">
-        <v>5</v>
-      </c>
-      <c r="C41" s="23">
-        <v>5</v>
-      </c>
-      <c r="D41" s="23">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="O41" s="25" t="s">
+      <c r="B41" s="22">
+        <v>5</v>
+      </c>
+      <c r="C41" s="22">
+        <v>5</v>
+      </c>
+      <c r="D41" s="22">
+        <v>5</v>
+      </c>
+      <c r="O41" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="P41" s="24">
+      <c r="P41" s="23">
         <f>COUNTIFS(Таблица3[Оценка],"=2")</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" ht="27" customHeight="1">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="22">
         <v>30</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="27" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="29">
         <v>86</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="30">
         <v>100</v>
       </c>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="29">
         <v>76</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="30">
         <v>85</v>
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="29">
         <v>60</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="30">
         <v>75</v>
       </c>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="33">
-        <v>0</v>
-      </c>
-      <c r="C51" s="34">
+      <c r="B51" s="32">
+        <v>0</v>
+      </c>
+      <c r="C51" s="33">
         <v>59</v>
       </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/БАРС/Баллы_431.xlsx
+++ b/БАРС/Баллы_431.xlsx
@@ -432,7 +432,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -505,10 +505,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -517,10 +513,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -555,14 +547,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -745,10 +729,10 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="11.33"/>
@@ -1063,7 +1047,7 @@
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="14" t="n">
         <v>15</v>
       </c>
       <c r="C8" s="15" t="n">
@@ -1081,41 +1065,41 @@
       <c r="G8" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="18" t="n">
+      <c r="H8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14" t="n">
         <f aca="false">ROUND(B8/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J8" s="18" t="n">
+      <c r="J8" s="14" t="n">
         <f aca="false">C8*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K8" s="18" t="n">
+      <c r="K8" s="14" t="n">
         <f aca="false">D8*$B$40</f>
         <v>18</v>
       </c>
-      <c r="L8" s="18" t="n">
+      <c r="L8" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H8*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M8" s="19" t="n">
+      <c r="M8" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>18</v>
       </c>
-      <c r="N8" s="18" t="n">
+      <c r="N8" s="14" t="n">
         <f aca="false">ROUND(SUM(I8:M8),0)</f>
         <v>80</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18" t="n">
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1124,7 +1108,7 @@
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="14" t="n">
         <v>10</v>
       </c>
       <c r="C9" s="15" t="n">
@@ -1142,41 +1126,41 @@
       <c r="G9" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="18" t="n">
+      <c r="H9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14" t="n">
         <f aca="false">ROUND(B9/$B$36*$B$38,0)</f>
         <v>6</v>
       </c>
-      <c r="J9" s="18" t="n">
+      <c r="J9" s="14" t="n">
         <f aca="false">C9*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K9" s="18" t="n">
+      <c r="K9" s="14" t="n">
         <f aca="false">D9*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L9" s="18" t="n">
+      <c r="L9" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H9*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M9" s="19" t="n">
+      <c r="M9" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>20</v>
       </c>
-      <c r="N9" s="18" t="n">
+      <c r="N9" s="14" t="n">
         <f aca="false">ROUND(SUM(I9:M9),0)</f>
         <v>81</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18" t="n">
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1185,7 +1169,7 @@
       <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="18" t="n">
+      <c r="B10" s="14" t="n">
         <v>12</v>
       </c>
       <c r="C10" s="15" t="n">
@@ -1203,41 +1187,41 @@
       <c r="G10" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="18" t="n">
+      <c r="H10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14" t="n">
         <f aca="false">ROUND(B10/$B$36*$B$38,0)</f>
         <v>8</v>
       </c>
-      <c r="J10" s="18" t="n">
+      <c r="J10" s="14" t="n">
         <f aca="false">C10*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K10" s="18" t="n">
+      <c r="K10" s="14" t="n">
         <f aca="false">D10*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L10" s="18" t="n">
+      <c r="L10" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H10*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M10" s="19" t="n">
+      <c r="M10" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>20</v>
       </c>
-      <c r="N10" s="18" t="n">
+      <c r="N10" s="14" t="n">
         <f aca="false">ROUND(SUM(I10:M10),0)</f>
         <v>83</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18" t="n">
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1246,7 +1230,7 @@
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="18" t="n">
+      <c r="B11" s="14" t="n">
         <v>14</v>
       </c>
       <c r="C11" s="15" t="n">
@@ -1264,41 +1248,41 @@
       <c r="G11" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="18" t="n">
+      <c r="H11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14" t="n">
         <f aca="false">ROUND(B11/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J11" s="18" t="n">
+      <c r="J11" s="14" t="n">
         <f aca="false">C11*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K11" s="18" t="n">
+      <c r="K11" s="14" t="n">
         <f aca="false">D11*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L11" s="18" t="n">
+      <c r="L11" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H11*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M11" s="19" t="n">
+      <c r="M11" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>20</v>
       </c>
-      <c r="N11" s="18" t="n">
+      <c r="N11" s="14" t="n">
         <f aca="false">ROUND(SUM(I11:M11),0)</f>
         <v>84</v>
       </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18" t="n">
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1307,14 +1291,14 @@
       <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="18" t="n">
+      <c r="B12" s="14" t="n">
         <v>14</v>
       </c>
       <c r="C12" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="15" t="n">
         <v>0</v>
@@ -1325,48 +1309,50 @@
       <c r="G12" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18" t="n">
+      <c r="H12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14" t="n">
         <f aca="false">ROUND(B12/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J12" s="18" t="n">
+      <c r="J12" s="14" t="n">
         <f aca="false">C12*$B$39</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="18" t="n">
+        <v>25</v>
+      </c>
+      <c r="K12" s="14" t="n">
         <f aca="false">D12*$B$40</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="L12" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H12*$B$41</f>
-        <v>5</v>
-      </c>
-      <c r="M12" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N12" s="18" t="n">
+      <c r="N12" s="14" t="n">
         <f aca="false">ROUND(SUM(I12:M12),0)</f>
-        <v>14</v>
-      </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18" t="n">
+        <v>64</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="18" t="n">
+      <c r="B13" s="14" t="n">
         <v>15</v>
       </c>
       <c r="C13" s="15" t="n">
@@ -1384,39 +1370,39 @@
       <c r="G13" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18" t="n">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="n">
         <f aca="false">ROUND(B13/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J13" s="18" t="n">
+      <c r="J13" s="14" t="n">
         <f aca="false">C13*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K13" s="18" t="n">
+      <c r="K13" s="14" t="n">
         <f aca="false">D13*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L13" s="18" t="n">
+      <c r="L13" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H13*$B$41</f>
         <v>5</v>
       </c>
-      <c r="M13" s="19" t="n">
+      <c r="M13" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N13" s="18" t="n">
+      <c r="N13" s="14" t="n">
         <f aca="false">ROUND(SUM(I13:M13),0)</f>
         <v>59</v>
       </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18" t="n">
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -1425,7 +1411,7 @@
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="18" t="n">
+      <c r="B14" s="14" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="15" t="n">
@@ -1443,41 +1429,41 @@
       <c r="G14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="18" t="n">
+      <c r="H14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14" t="n">
         <f aca="false">ROUND(B14/$B$36*$B$38,0)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="18" t="n">
+      <c r="J14" s="14" t="n">
         <f aca="false">C14*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K14" s="18" t="n">
+      <c r="K14" s="14" t="n">
         <f aca="false">D14*$B$40</f>
         <v>18</v>
       </c>
-      <c r="L14" s="18" t="n">
+      <c r="L14" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H14*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M14" s="19" t="n">
+      <c r="M14" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>18</v>
       </c>
-      <c r="N14" s="18" t="n">
+      <c r="N14" s="14" t="n">
         <f aca="false">ROUND(SUM(I14:M14),0)</f>
         <v>79</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18" t="n">
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1486,17 +1472,17 @@
       <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="18" t="n">
+      <c r="B15" s="14" t="n">
         <v>11</v>
       </c>
       <c r="C15" s="15" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E15" s="15" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F15" s="16" t="n">
         <v>1</v>
@@ -1504,48 +1490,50 @@
       <c r="G15" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18" t="n">
+      <c r="H15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14" t="n">
         <f aca="false">ROUND(B15/$B$36*$B$38,0)</f>
         <v>7</v>
       </c>
-      <c r="J15" s="18" t="n">
+      <c r="J15" s="14" t="n">
         <f aca="false">C15*$B$39</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="18" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K15" s="14" t="n">
         <f aca="false">D15*$B$40</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="L15" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H15*$B$41</f>
-        <v>5</v>
-      </c>
-      <c r="M15" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="N15" s="14" t="n">
         <f aca="false">ROUND(SUM(I15:M15),0)</f>
-        <v>12</v>
-      </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18" t="n">
+        <v>76</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="18" t="n">
+      <c r="B16" s="14" t="n">
         <v>13</v>
       </c>
       <c r="C16" s="15" t="n">
@@ -1563,41 +1551,41 @@
       <c r="G16" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="18" t="n">
+      <c r="H16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14" t="n">
         <f aca="false">ROUND(B16/$B$36*$B$38,0)</f>
         <v>8</v>
       </c>
-      <c r="J16" s="18" t="n">
+      <c r="J16" s="14" t="n">
         <f aca="false">C16*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K16" s="18" t="n">
+      <c r="K16" s="14" t="n">
         <f aca="false">D16*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L16" s="18" t="n">
+      <c r="L16" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H16*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M16" s="19" t="n">
+      <c r="M16" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>20</v>
       </c>
-      <c r="N16" s="18" t="n">
+      <c r="N16" s="14" t="n">
         <f aca="false">ROUND(SUM(I16:M16),0)</f>
         <v>83</v>
       </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18" t="n">
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1606,7 +1594,7 @@
       <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="18" t="n">
+      <c r="B17" s="14" t="n">
         <v>8</v>
       </c>
       <c r="C17" s="15" t="n">
@@ -1624,39 +1612,39 @@
       <c r="G17" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18" t="n">
+      <c r="H17" s="14"/>
+      <c r="I17" s="14" t="n">
         <f aca="false">ROUND(B17/$B$36*$B$38,0)</f>
         <v>5</v>
       </c>
-      <c r="J17" s="18" t="n">
+      <c r="J17" s="14" t="n">
         <f aca="false">C17*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K17" s="18" t="n">
+      <c r="K17" s="14" t="n">
         <f aca="false">D17*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L17" s="18" t="n">
+      <c r="L17" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H17*$B$41</f>
         <v>0</v>
       </c>
-      <c r="M17" s="19" t="n">
+      <c r="M17" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N17" s="18" t="n">
+      <c r="N17" s="14" t="n">
         <f aca="false">ROUND(SUM(I17:M17),0)</f>
         <v>5</v>
       </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18" t="n">
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -1665,7 +1653,7 @@
       <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="18" t="n">
+      <c r="B18" s="14" t="n">
         <v>9</v>
       </c>
       <c r="C18" s="15" t="n">
@@ -1683,39 +1671,39 @@
       <c r="G18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18" t="n">
+      <c r="H18" s="14"/>
+      <c r="I18" s="14" t="n">
         <f aca="false">ROUND(B18/$B$36*$B$38,0)</f>
         <v>6</v>
       </c>
-      <c r="J18" s="18" t="n">
+      <c r="J18" s="14" t="n">
         <f aca="false">C18*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K18" s="18" t="n">
+      <c r="K18" s="14" t="n">
         <f aca="false">D18*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L18" s="18" t="n">
+      <c r="L18" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H18*$B$41</f>
         <v>0</v>
       </c>
-      <c r="M18" s="19" t="n">
+      <c r="M18" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N18" s="18" t="n">
+      <c r="N18" s="14" t="n">
         <f aca="false">ROUND(SUM(I18:M18),0)</f>
         <v>6</v>
       </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18" t="n">
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -1724,7 +1712,7 @@
       <c r="A19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="18" t="n">
+      <c r="B19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="C19" s="15" t="n">
@@ -1742,39 +1730,39 @@
       <c r="G19" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18" t="n">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14" t="n">
         <f aca="false">ROUND(B19/$B$36*$B$38,0)</f>
         <v>5</v>
       </c>
-      <c r="J19" s="18" t="n">
+      <c r="J19" s="14" t="n">
         <f aca="false">C19*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K19" s="18" t="n">
+      <c r="K19" s="14" t="n">
         <f aca="false">D19*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L19" s="18" t="n">
+      <c r="L19" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H19*$B$41</f>
         <v>5</v>
       </c>
-      <c r="M19" s="19" t="n">
+      <c r="M19" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N19" s="18" t="n">
+      <c r="N19" s="14" t="n">
         <f aca="false">ROUND(SUM(I19:M19),0)</f>
         <v>55</v>
       </c>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18" t="n">
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -1783,7 +1771,7 @@
       <c r="A20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="18" t="n">
+      <c r="B20" s="14" t="n">
         <v>14</v>
       </c>
       <c r="C20" s="15" t="n">
@@ -1801,41 +1789,41 @@
       <c r="G20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="18" t="n">
+      <c r="H20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14" t="n">
         <f aca="false">ROUND(B20/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J20" s="18" t="n">
+      <c r="J20" s="14" t="n">
         <f aca="false">C20*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K20" s="18" t="n">
+      <c r="K20" s="14" t="n">
         <f aca="false">D20*$B$40</f>
         <v>18</v>
       </c>
-      <c r="L20" s="18" t="n">
+      <c r="L20" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H20*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M20" s="19" t="n">
+      <c r="M20" s="18" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>18</v>
       </c>
-      <c r="N20" s="18" t="n">
+      <c r="N20" s="14" t="n">
         <f aca="false">ROUND(SUM(I20:M20),0)</f>
         <v>80</v>
       </c>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18" t="n">
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -2208,13 +2196,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E27" s="15" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F27" s="16" t="n">
         <v>1</v>
@@ -2229,11 +2217,11 @@
       </c>
       <c r="J27" s="14" t="n">
         <f aca="false">C27*$B$39</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K27" s="14" t="n">
         <f aca="false">D27*$B$40</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L27" s="14" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H27*$B$41</f>
@@ -2241,11 +2229,11 @@
       </c>
       <c r="M27" s="14" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N27" s="14" t="n">
         <f aca="false">ROUND(SUM(I27:M27),0)</f>
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
@@ -2256,7 +2244,7 @@
       <c r="U27" s="14"/>
       <c r="V27" s="14" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,13 +2605,13 @@
       <c r="V33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -2642,191 +2630,191 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="23" t="n">
+      <c r="B36" s="21" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="O37" s="26" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="O37" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="P37" s="26"/>
+      <c r="P37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="28" t="n">
+      <c r="B38" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="O38" s="30" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="O38" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="P38" s="29" t="n">
+      <c r="P38" s="27" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=5")</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="31" t="n">
+      <c r="B39" s="26" t="n">
         <v>25</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="32"/>
-      <c r="O39" s="30" t="s">
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="O39" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P39" s="29" t="n">
+      <c r="P39" s="27" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=4")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="31" t="n">
+      <c r="B40" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="O40" s="30" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="O40" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="P40" s="29" t="n">
+      <c r="P40" s="27" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=3")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="31" t="n">
+      <c r="B41" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="C41" s="31" t="n">
+      <c r="C41" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="D41" s="31" t="n">
+      <c r="D41" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="O41" s="30" t="s">
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="O41" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="P41" s="29" t="n">
+      <c r="P41" s="27" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=2")</f>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="31" t="n">
+      <c r="B42" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="31" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="37" t="n">
+      <c r="B48" s="33" t="n">
         <v>86</v>
       </c>
-      <c r="C48" s="38" t="n">
+      <c r="C48" s="34" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="37" t="n">
+      <c r="B49" s="33" t="n">
         <v>76</v>
       </c>
-      <c r="C49" s="38" t="n">
+      <c r="C49" s="34" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="37" t="n">
+      <c r="B50" s="33" t="n">
         <v>60</v>
       </c>
-      <c r="C50" s="38" t="n">
+      <c r="C50" s="34" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="41" t="n">
+      <c r="B51" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="37" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/БАРС/Баллы_431.xlsx
+++ b/БАРС/Баллы_431.xlsx
@@ -13,7 +13,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -242,19 +242,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -276,19 +275,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -432,7 +424,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -469,7 +461,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -477,7 +469,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -485,34 +477,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,12 +501,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -728,8 +704,8 @@
   </sheetPr>
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -866,59 +842,59 @@
       <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14" t="n">
+      <c r="C5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <f aca="false">ROUND(B5/$B$36*$B$38,0)</f>
         <v>8</v>
       </c>
-      <c r="J5" s="14" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">C5*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K5" s="14" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">D5*$B$40</f>
         <v>18</v>
       </c>
-      <c r="L5" s="14" t="n">
+      <c r="L5" s="1" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H5*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M5" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>18</v>
-      </c>
-      <c r="N5" s="14" t="n">
+      <c r="M5" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N5" s="1" t="n">
         <f aca="false">ROUND(SUM(I5:M5),0)</f>
         <v>79</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14" t="n">
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -927,118 +903,118 @@
       <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C6" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F6" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14" t="n">
+      <c r="C6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <f aca="false">ROUND(B6/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J6" s="14" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">C6*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K6" s="14" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">D6*$B$40</f>
         <v>18</v>
       </c>
-      <c r="L6" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H6*$B$41</f>
+      <c r="L6" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H6*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M6" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>18</v>
-      </c>
-      <c r="N6" s="14" t="n">
+      <c r="M6" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N6" s="1" t="n">
         <f aca="false">ROUND(SUM(I6:M6),0)</f>
         <v>80</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14" t="n">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14" t="n">
+      <c r="C7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="n">
         <f aca="false">ROUND(B7/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J7" s="14" t="n">
+      <c r="J7" s="1" t="n">
         <f aca="false">C7*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K7" s="14" t="n">
+      <c r="K7" s="1" t="n">
         <f aca="false">D7*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L7" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H7*$B$41</f>
+      <c r="L7" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H7*$B$41</f>
         <v>5</v>
       </c>
-      <c r="M7" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="14" t="n">
+      <c r="M7" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
         <f aca="false">ROUND(SUM(I7:M7),0)</f>
         <v>14</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14" t="n">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -1047,59 +1023,59 @@
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C8" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F8" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14" t="n">
+      <c r="C8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <f aca="false">ROUND(B8/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J8" s="14" t="n">
+      <c r="J8" s="1" t="n">
         <f aca="false">C8*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K8" s="14" t="n">
+      <c r="K8" s="1" t="n">
         <f aca="false">D8*$B$40</f>
         <v>18</v>
       </c>
-      <c r="L8" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H8*$B$41</f>
+      <c r="L8" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H8*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M8" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>18</v>
-      </c>
-      <c r="N8" s="14" t="n">
+      <c r="M8" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N8" s="1" t="n">
         <f aca="false">ROUND(SUM(I8:M8),0)</f>
         <v>80</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14" t="n">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1108,59 +1084,59 @@
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14" t="n">
+      <c r="C9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
         <f aca="false">ROUND(B9/$B$36*$B$38,0)</f>
         <v>6</v>
       </c>
-      <c r="J9" s="14" t="n">
+      <c r="J9" s="1" t="n">
         <f aca="false">C9*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K9" s="14" t="n">
+      <c r="K9" s="1" t="n">
         <f aca="false">D9*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L9" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H9*$B$41</f>
+      <c r="L9" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H9*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M9" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>20</v>
-      </c>
-      <c r="N9" s="14" t="n">
+      <c r="M9" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N9" s="1" t="n">
         <f aca="false">ROUND(SUM(I9:M9),0)</f>
-        <v>81</v>
-      </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14" t="n">
+        <v>79</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1169,59 +1145,59 @@
       <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="14" t="n">
+      <c r="C10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <f aca="false">ROUND(B10/$B$36*$B$38,0)</f>
         <v>8</v>
       </c>
-      <c r="J10" s="14" t="n">
+      <c r="J10" s="1" t="n">
         <f aca="false">C10*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K10" s="14" t="n">
+      <c r="K10" s="1" t="n">
         <f aca="false">D10*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L10" s="14" t="n">
+      <c r="L10" s="1" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H10*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M10" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>20</v>
-      </c>
-      <c r="N10" s="14" t="n">
+      <c r="M10" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N10" s="1" t="n">
         <f aca="false">ROUND(SUM(I10:M10),0)</f>
-        <v>83</v>
-      </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14" t="n">
+        <v>81</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1230,59 +1206,59 @@
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="14" t="n">
+      <c r="C11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="n">
         <f aca="false">ROUND(B11/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J11" s="14" t="n">
+      <c r="J11" s="1" t="n">
         <f aca="false">C11*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K11" s="14" t="n">
+      <c r="K11" s="1" t="n">
         <f aca="false">D11*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L11" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H11*$B$41</f>
+      <c r="L11" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H11*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M11" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>20</v>
-      </c>
-      <c r="N11" s="14" t="n">
+      <c r="M11" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N11" s="1" t="n">
         <f aca="false">ROUND(SUM(I11:M11),0)</f>
-        <v>84</v>
-      </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1291,59 +1267,59 @@
       <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="14" t="n">
+      <c r="C12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="n">
         <f aca="false">ROUND(B12/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J12" s="14" t="n">
+      <c r="J12" s="1" t="n">
         <f aca="false">C12*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K12" s="14" t="n">
+      <c r="K12" s="1" t="n">
         <f aca="false">D12*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L12" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H12*$B$41</f>
+      <c r="L12" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H12*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M12" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="14" t="n">
+      <c r="M12" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
         <f aca="false">ROUND(SUM(I12:M12),0)</f>
         <v>64</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14" t="n">
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>3</v>
       </c>
@@ -1352,118 +1328,120 @@
       <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14" t="n">
+      <c r="C13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="n">
         <f aca="false">ROUND(B13/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J13" s="14" t="n">
+      <c r="J13" s="1" t="n">
         <f aca="false">C13*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K13" s="14" t="n">
+      <c r="K13" s="1" t="n">
         <f aca="false">D13*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L13" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H13*$B$41</f>
-        <v>5</v>
-      </c>
-      <c r="M13" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="14" t="n">
+      <c r="L13" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H13*$B$41</f>
+        <v>10</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N13" s="1" t="n">
         <f aca="false">ROUND(SUM(I13:M13),0)</f>
-        <v>59</v>
-      </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="14" t="n">
+      <c r="B14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E14" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F14" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="14" t="n">
+      <c r="C14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="n">
         <f aca="false">ROUND(B14/$B$36*$B$38,0)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="14" t="n">
+      <c r="J14" s="1" t="n">
         <f aca="false">C14*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K14" s="14" t="n">
+      <c r="K14" s="1" t="n">
         <f aca="false">D14*$B$40</f>
         <v>18</v>
       </c>
-      <c r="L14" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H14*$B$41</f>
+      <c r="L14" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H14*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M14" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>18</v>
-      </c>
-      <c r="N14" s="14" t="n">
+      <c r="M14" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N14" s="1" t="n">
         <f aca="false">ROUND(SUM(I14:M14),0)</f>
         <v>79</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14" t="n">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1472,59 +1450,59 @@
       <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="14" t="n">
+      <c r="B15" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D15" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E15" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F15" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="14" t="n">
+      <c r="C15" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="n">
         <f aca="false">ROUND(B15/$B$36*$B$38,0)</f>
         <v>7</v>
       </c>
-      <c r="J15" s="14" t="n">
+      <c r="J15" s="1" t="n">
         <f aca="false">C15*$B$39</f>
         <v>22.5</v>
       </c>
-      <c r="K15" s="14" t="n">
+      <c r="K15" s="1" t="n">
         <f aca="false">D15*$B$40</f>
         <v>18</v>
       </c>
-      <c r="L15" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H15*$B$41</f>
+      <c r="L15" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H15*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M15" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>18</v>
-      </c>
-      <c r="N15" s="14" t="n">
+      <c r="M15" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N15" s="1" t="n">
         <f aca="false">ROUND(SUM(I15:M15),0)</f>
         <v>76</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14" t="n">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1533,59 +1511,59 @@
       <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="14" t="n">
+      <c r="B16" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14" t="n">
+      <c r="C16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="n">
         <f aca="false">ROUND(B16/$B$36*$B$38,0)</f>
         <v>8</v>
       </c>
-      <c r="J16" s="14" t="n">
+      <c r="J16" s="1" t="n">
         <f aca="false">C16*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K16" s="14" t="n">
+      <c r="K16" s="1" t="n">
         <f aca="false">D16*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L16" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H16*$B$41</f>
+      <c r="L16" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H16*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M16" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>20</v>
-      </c>
-      <c r="N16" s="14" t="n">
+      <c r="M16" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N16" s="1" t="n">
         <f aca="false">ROUND(SUM(I16:M16),0)</f>
-        <v>83</v>
-      </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14" t="n">
+        <v>81</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1594,57 +1572,57 @@
       <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="14" t="n">
+      <c r="B17" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14" t="n">
+      <c r="C17" s="14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="n">
         <f aca="false">ROUND(B17/$B$36*$B$38,0)</f>
         <v>5</v>
       </c>
-      <c r="J17" s="14" t="n">
+      <c r="J17" s="1" t="n">
         <f aca="false">C17*$B$39</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" s="1" t="n">
         <f aca="false">D17*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L17" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H17*$B$41</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="14" t="n">
+      <c r="L17" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H17*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
         <f aca="false">ROUND(SUM(I17:M17),0)</f>
-        <v>5</v>
-      </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -1653,57 +1631,57 @@
       <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="14" t="n">
+      <c r="B18" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14" t="n">
+      <c r="C18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="n">
         <f aca="false">ROUND(B18/$B$36*$B$38,0)</f>
         <v>6</v>
       </c>
-      <c r="J18" s="14" t="n">
+      <c r="J18" s="1" t="n">
         <f aca="false">C18*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K18" s="14" t="n">
+      <c r="K18" s="1" t="n">
         <f aca="false">D18*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L18" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H18*$B$41</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="14" t="n">
+      <c r="L18" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H18*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
         <f aca="false">ROUND(SUM(I18:M18),0)</f>
         <v>6</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14" t="n">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -1712,57 +1690,57 @@
       <c r="A19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="14" t="n">
+      <c r="B19" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14" t="n">
+      <c r="C19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="n">
         <f aca="false">ROUND(B19/$B$36*$B$38,0)</f>
         <v>5</v>
       </c>
-      <c r="J19" s="14" t="n">
+      <c r="J19" s="1" t="n">
         <f aca="false">C19*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K19" s="14" t="n">
+      <c r="K19" s="1" t="n">
         <f aca="false">D19*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L19" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H19*$B$41</f>
+      <c r="L19" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H19*$B$41</f>
         <v>5</v>
       </c>
-      <c r="M19" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="14" t="n">
+      <c r="M19" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
         <f aca="false">ROUND(SUM(I19:M19),0)</f>
         <v>55</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14" t="n">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -1771,59 +1749,59 @@
       <c r="A20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="14" t="n">
+      <c r="B20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C20" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E20" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F20" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="14" t="n">
+      <c r="C20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="n">
         <f aca="false">ROUND(B20/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J20" s="14" t="n">
+      <c r="J20" s="1" t="n">
         <f aca="false">C20*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K20" s="14" t="n">
+      <c r="K20" s="1" t="n">
         <f aca="false">D20*$B$40</f>
         <v>18</v>
       </c>
-      <c r="L20" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H20*$B$41</f>
+      <c r="L20" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H20*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M20" s="18" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>18</v>
-      </c>
-      <c r="N20" s="14" t="n">
+      <c r="M20" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N20" s="1" t="n">
         <f aca="false">ROUND(SUM(I20:M20),0)</f>
         <v>80</v>
       </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14" t="n">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1832,59 +1810,59 @@
       <c r="A21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="14" t="n">
+      <c r="B21" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C21" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="14" t="n">
+      <c r="C21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="n">
         <f aca="false">ROUND(B21/$B$36*$B$38,0)</f>
         <v>8</v>
       </c>
-      <c r="J21" s="14" t="n">
+      <c r="J21" s="1" t="n">
         <f aca="false">C21*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K21" s="14" t="n">
+      <c r="K21" s="1" t="n">
         <f aca="false">D21*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L21" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H21*$B$41</f>
+      <c r="L21" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H21*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M21" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>20</v>
-      </c>
-      <c r="N21" s="14" t="n">
+      <c r="M21" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N21" s="1" t="n">
         <f aca="false">ROUND(SUM(I21:M21),0)</f>
-        <v>83</v>
-      </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14" t="n">
+        <v>81</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -1893,57 +1871,57 @@
       <c r="A22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="14" t="n">
+      <c r="B22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C22" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14" t="n">
+      <c r="C22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="n">
         <f aca="false">ROUND(B22/$B$36*$B$38,0)</f>
         <v>8</v>
       </c>
-      <c r="J22" s="14" t="n">
+      <c r="J22" s="1" t="n">
         <f aca="false">C22*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K22" s="14" t="n">
+      <c r="K22" s="1" t="n">
         <f aca="false">D22*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L22" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H22*$B$41</f>
+      <c r="L22" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H22*$B$41</f>
         <v>5</v>
       </c>
-      <c r="M22" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="14" t="n">
+      <c r="M22" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="n">
         <f aca="false">ROUND(SUM(I22:M22),0)</f>
         <v>58</v>
       </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14" t="n">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -1952,59 +1930,59 @@
       <c r="A23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="14" t="n">
+      <c r="B23" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="14" t="n">
+      <c r="C23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="n">
         <f aca="false">ROUND(B23/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J23" s="14" t="n">
+      <c r="J23" s="1" t="n">
         <f aca="false">C23*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K23" s="14" t="n">
+      <c r="K23" s="1" t="n">
         <f aca="false">D23*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L23" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H23*$B$41</f>
+      <c r="L23" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H23*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M23" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>20</v>
-      </c>
-      <c r="N23" s="14" t="n">
+      <c r="M23" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N23" s="1" t="n">
         <f aca="false">ROUND(SUM(I23:M23),0)</f>
-        <v>84</v>
-      </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -2013,118 +1991,118 @@
       <c r="A24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="14" t="n">
+      <c r="B24" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C24" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14" t="n">
+      <c r="C24" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F24" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="n">
         <f aca="false">ROUND(B24/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J24" s="14" t="n">
+      <c r="J24" s="1" t="n">
         <f aca="false">C24*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K24" s="14" t="n">
+      <c r="K24" s="1" t="n">
         <f aca="false">D24*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L24" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H24*$B$41</f>
+      <c r="L24" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H24*$B$41</f>
         <v>5</v>
       </c>
-      <c r="M24" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="14" t="n">
+      <c r="M24" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N24" s="1" t="n">
         <f aca="false">ROUND(SUM(I24:M24),0)</f>
-        <v>59</v>
-      </c>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14" t="n">
+        <v>77</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="14" t="n">
+      <c r="B25" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C25" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="14" t="n">
+      <c r="C25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="n">
         <f aca="false">ROUND(B25/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J25" s="14" t="n">
+      <c r="J25" s="1" t="n">
         <f aca="false">C25*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K25" s="14" t="n">
+      <c r="K25" s="1" t="n">
         <f aca="false">D25*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L25" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H25*$B$41</f>
+      <c r="L25" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H25*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M25" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>20</v>
-      </c>
-      <c r="N25" s="14" t="n">
+      <c r="M25" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N25" s="1" t="n">
         <f aca="false">ROUND(SUM(I25:M25),0)</f>
-        <v>84</v>
-      </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -2133,57 +2111,57 @@
       <c r="A26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14" t="n">
+      <c r="B26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="n">
         <f aca="false">ROUND(B26/$B$36*$B$38,0)</f>
         <v>1</v>
       </c>
-      <c r="J26" s="14" t="n">
+      <c r="J26" s="1" t="n">
         <f aca="false">C26*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K26" s="14" t="n">
+      <c r="K26" s="1" t="n">
         <f aca="false">D26*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L26" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H26*$B$41</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="14" t="n">
+      <c r="L26" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H26*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
         <f aca="false">ROUND(SUM(I26:M26),0)</f>
         <v>1</v>
       </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14" t="n">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -2192,57 +2170,57 @@
       <c r="A27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="14" t="n">
+      <c r="B27" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C27" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E27" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F27" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14" t="n">
+      <c r="C27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="n">
         <f aca="false">ROUND(B27/$B$36*$B$38,0)</f>
         <v>6</v>
       </c>
-      <c r="J27" s="14" t="n">
+      <c r="J27" s="1" t="n">
         <f aca="false">C27*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K27" s="14" t="n">
+      <c r="K27" s="1" t="n">
         <f aca="false">D27*$B$40</f>
         <v>18</v>
       </c>
-      <c r="L27" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H27*$B$41</f>
+      <c r="L27" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H27*$B$41</f>
         <v>5</v>
       </c>
-      <c r="M27" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>18</v>
-      </c>
-      <c r="N27" s="14" t="n">
+      <c r="M27" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N27" s="1" t="n">
         <f aca="false">ROUND(SUM(I27:M27),0)</f>
         <v>72</v>
       </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14" t="n">
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>3</v>
       </c>
@@ -2251,57 +2229,57 @@
       <c r="A28" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="14" t="n">
+      <c r="B28" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C28" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14" t="n">
+      <c r="C28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="n">
         <f aca="false">ROUND(B28/$B$36*$B$38,0)</f>
         <v>5</v>
       </c>
-      <c r="J28" s="14" t="n">
+      <c r="J28" s="1" t="n">
         <f aca="false">C28*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K28" s="14" t="n">
+      <c r="K28" s="1" t="n">
         <f aca="false">D28*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L28" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H28*$B$41</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="14" t="n">
+      <c r="L28" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H28*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
         <f aca="false">ROUND(SUM(I28:M28),0)</f>
         <v>5</v>
       </c>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14" t="n">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -2310,59 +2288,59 @@
       <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="14" t="n">
+      <c r="B29" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C29" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="14" t="n">
+      <c r="C29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="n">
         <f aca="false">ROUND(B29/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J29" s="14" t="n">
+      <c r="J29" s="1" t="n">
         <f aca="false">C29*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K29" s="14" t="n">
+      <c r="K29" s="1" t="n">
         <f aca="false">D29*$B$40</f>
         <v>20</v>
       </c>
-      <c r="L29" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H29*$B$41</f>
+      <c r="L29" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H29*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M29" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>20</v>
-      </c>
-      <c r="N29" s="14" t="n">
+      <c r="M29" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N29" s="1" t="n">
         <f aca="false">ROUND(SUM(I29:M29),0)</f>
-        <v>84</v>
-      </c>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -2371,57 +2349,57 @@
       <c r="A30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C30" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14" t="n">
+      <c r="C30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="n">
         <f aca="false">ROUND(B30/$B$36*$B$38,0)</f>
         <v>8</v>
       </c>
-      <c r="J30" s="14" t="n">
+      <c r="J30" s="1" t="n">
         <f aca="false">C30*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K30" s="14" t="n">
+      <c r="K30" s="1" t="n">
         <f aca="false">D30*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L30" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H30*$B$41</f>
+      <c r="L30" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H30*$B$41</f>
         <v>5</v>
       </c>
-      <c r="M30" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="14" t="n">
+      <c r="M30" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="n">
         <f aca="false">ROUND(SUM(I30:M30),0)</f>
         <v>13</v>
       </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14" t="n">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -2430,59 +2408,59 @@
       <c r="A31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="14" t="n">
+      <c r="B31" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C31" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E31" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F31" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="14" t="n">
+      <c r="C31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="n">
         <f aca="false">ROUND(B31/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J31" s="14" t="n">
+      <c r="J31" s="1" t="n">
         <f aca="false">C31*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K31" s="14" t="n">
+      <c r="K31" s="1" t="n">
         <f aca="false">D31*$B$40</f>
         <v>18</v>
       </c>
-      <c r="L31" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H31*$B$41</f>
+      <c r="L31" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H31*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M31" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>18</v>
-      </c>
-      <c r="N31" s="14" t="n">
+      <c r="M31" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N31" s="1" t="n">
         <f aca="false">ROUND(SUM(I31:M31),0)</f>
         <v>80</v>
       </c>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14" t="n">
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>4</v>
       </c>
@@ -2491,57 +2469,57 @@
       <c r="A32" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="14" t="n">
+      <c r="B32" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C32" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14" t="n">
+      <c r="C32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="n">
         <f aca="false">ROUND(B32/$B$36*$B$38,0)</f>
         <v>3</v>
       </c>
-      <c r="J32" s="14" t="n">
+      <c r="J32" s="1" t="n">
         <f aca="false">C32*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K32" s="14" t="n">
+      <c r="K32" s="1" t="n">
         <f aca="false">D32*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L32" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H32*$B$41</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="14" t="n">
+      <c r="L32" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H32*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
         <f aca="false">ROUND(SUM(I32:M32),0)</f>
         <v>3</v>
       </c>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14" t="n">
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -2550,271 +2528,246 @@
       <c r="A33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="14" t="n">
+      <c r="B33" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C33" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E33" s="15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F33" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="14" t="n">
+      <c r="C33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="n">
         <f aca="false">ROUND(B33/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J33" s="14" t="n">
+      <c r="J33" s="1" t="n">
         <f aca="false">C33*$B$39</f>
         <v>25</v>
       </c>
-      <c r="K33" s="14" t="n">
+      <c r="K33" s="1" t="n">
         <f aca="false">D33*$B$40</f>
         <v>18</v>
       </c>
-      <c r="L33" s="14" t="n">
-        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+ H33*$B$41</f>
+      <c r="L33" s="1" t="n">
+        <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H33*$B$41</f>
         <v>10</v>
       </c>
-      <c r="M33" s="14" t="n">
-        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>18</v>
-      </c>
-      <c r="N33" s="14" t="n">
+      <c r="M33" s="1" t="n">
+        <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
+        <v>18</v>
+      </c>
+      <c r="N33" s="1" t="n">
         <f aca="false">ROUND(SUM(I33:M33),0)</f>
         <v>80</v>
       </c>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="21" t="n">
+      <c r="B36" s="18" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="O37" s="24" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="O37" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="P37" s="24"/>
+      <c r="P37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="26" t="n">
+      <c r="B38" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="O38" s="28" t="s">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="O38" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="P38" s="27" t="n">
+      <c r="P38" s="23" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=5")</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="26" t="n">
+      <c r="B39" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="O39" s="28" t="s">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="O39" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P39" s="27" t="n">
+      <c r="P39" s="23" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=4")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="26" t="n">
+      <c r="B40" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="O40" s="28" t="s">
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="O40" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="P40" s="27" t="n">
+      <c r="P40" s="23" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=3")</f>
         <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="26" t="n">
+      <c r="B41" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="C41" s="26" t="n">
+      <c r="C41" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="D41" s="26" t="n">
+      <c r="D41" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="O41" s="28" t="s">
+      <c r="O41" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="P41" s="27" t="n">
+      <c r="P41" s="23" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=2")</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="26" t="n">
+      <c r="B42" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="27" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="33" t="n">
+      <c r="B48" s="29" t="n">
         <v>86</v>
       </c>
-      <c r="C48" s="34" t="n">
+      <c r="C48" s="30" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="33" t="n">
+      <c r="B49" s="29" t="n">
         <v>76</v>
       </c>
-      <c r="C49" s="34" t="n">
+      <c r="C49" s="30" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="33" t="n">
+      <c r="B50" s="29" t="n">
         <v>60</v>
       </c>
-      <c r="C50" s="34" t="n">
+      <c r="C50" s="30" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="37" t="n">
+      <c r="B51" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="33" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/БАРС/Баллы_431.xlsx
+++ b/БАРС/Баллы_431.xlsx
@@ -581,8 +581,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF404040"/>
+          <fgColor rgb="FFEEEEEC"/>
+          <bgColor rgb="FF2D2D2D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -705,12 +705,12 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="16.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="14" style="0" width="13.78"/>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="14" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F19" s="15" t="n">
         <v>1</v>
@@ -1708,7 +1708,9 @@
       <c r="G19" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I19" s="1" t="n">
         <f aca="false">ROUND(B19/$B$36*$B$38,0)</f>
         <v>5</v>
@@ -1723,15 +1725,15 @@
       </c>
       <c r="L19" s="1" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H19*$B$41</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M19" s="1" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N19" s="1" t="n">
         <f aca="false">ROUND(SUM(I19:M19),0)</f>
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1742,7 +1744,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,7 +2660,7 @@
       </c>
       <c r="P39" s="23" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=4")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2696,7 +2698,7 @@
       </c>
       <c r="P41" s="23" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=2")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/БАРС/Баллы_431.xlsx
+++ b/БАРС/Баллы_431.xlsx
@@ -704,8 +704,8 @@
   </sheetPr>
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T22" activeCellId="0" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1910,22 +1910,32 @@
       </c>
       <c r="M22" s="1" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N22" s="1" t="n">
         <f aca="false">ROUND(SUM(I22:M22),0)</f>
-        <v>58</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,7 +2670,7 @@
       </c>
       <c r="P39" s="23" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=4")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2698,7 +2708,7 @@
       </c>
       <c r="P41" s="23" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=2")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/БАРС/Баллы_431.xlsx
+++ b/БАРС/Баллы_431.xlsx
@@ -293,7 +293,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +310,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA7500"/>
+        <bgColor rgb="FFE8A202"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8A202"/>
+        <bgColor rgb="FFEA7500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -424,7 +448,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,8 +513,76 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -570,7 +662,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -589,7 +681,35 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF77BC65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB4C7DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8A202"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA7500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -640,10 +760,10 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFE8A202"/>
+      <rgbColor rgb="FFEA7500"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -704,8 +824,8 @@
   </sheetPr>
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T22" activeCellId="0" sqref="T22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V22" activeCellId="0" sqref="O22:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -964,46 +1084,46 @@
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="n">
+      <c r="C7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17" t="n">
         <f aca="false">ROUND(B7/$B$36*$B$38,0)</f>
         <v>9</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="17" t="n">
         <f aca="false">C7*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="17" t="n">
         <f aca="false">D7*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="L7" s="17" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H7*$B$41</f>
         <v>5</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="17" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="17" t="n">
         <f aca="false">ROUND(SUM(I7:M7),0)</f>
         <v>14</v>
       </c>
@@ -1569,49 +1689,49 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="22" t="n">
         <v>0.8</v>
       </c>
-      <c r="D17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="n">
+      <c r="D17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21" t="n">
         <f aca="false">ROUND(B17/$B$36*$B$38,0)</f>
         <v>5</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="J17" s="21" t="n">
         <f aca="false">C17*$B$39</f>
         <v>20</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="21" t="n">
         <f aca="false">D17*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="L17" s="21" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H17*$B$41</f>
         <v>0</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="M17" s="21" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="N17" s="21" t="n">
         <f aca="false">ROUND(SUM(I17:M17),0)</f>
         <v>25</v>
       </c>
@@ -1628,49 +1748,49 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="C18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="n">
+      <c r="C18" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21" t="n">
         <f aca="false">ROUND(B18/$B$36*$B$38,0)</f>
         <v>6</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="J18" s="21" t="n">
         <f aca="false">C18*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="K18" s="21" t="n">
         <f aca="false">D18*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="L18" s="21" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H18*$B$41</f>
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="M18" s="21" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="N18" s="21" t="n">
         <f aca="false">ROUND(SUM(I18:M18),0)</f>
         <v>6</v>
       </c>
@@ -1891,7 +2011,9 @@
       <c r="G22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I22" s="1" t="n">
         <f aca="false">ROUND(B22/$B$36*$B$38,0)</f>
         <v>8</v>
@@ -1906,15 +2028,15 @@
       </c>
       <c r="L22" s="1" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H22*$B$41</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M22" s="1" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N22" s="1" t="n">
         <f aca="false">ROUND(SUM(I22:M22),0)</f>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="O22" s="1" t="n">
         <v>5</v>
@@ -1931,11 +2053,13 @@
       <c r="S22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="T22" s="1"/>
+      <c r="T22" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,61 +2243,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
+    <row r="26" s="29" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="n">
+      <c r="B26" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25" t="n">
         <f aca="false">ROUND(B26/$B$36*$B$38,0)</f>
         <v>1</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="J26" s="25" t="n">
         <f aca="false">C26*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K26" s="1" t="n">
+      <c r="K26" s="25" t="n">
         <f aca="false">D26*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L26" s="1" t="n">
+      <c r="L26" s="25" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H26*$B$41</f>
         <v>0</v>
       </c>
-      <c r="M26" s="1" t="n">
+      <c r="M26" s="25" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N26" s="1" t="n">
+      <c r="N26" s="25" t="n">
         <f aca="false">ROUND(SUM(I26:M26),0)</f>
         <v>1</v>
       </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1" t="n">
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28" t="n">
         <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
         <v>2</v>
       </c>
@@ -2238,49 +2362,49 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="C28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1" t="n">
+      <c r="C28" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25" t="n">
         <f aca="false">ROUND(B28/$B$36*$B$38,0)</f>
         <v>5</v>
       </c>
-      <c r="J28" s="1" t="n">
+      <c r="J28" s="25" t="n">
         <f aca="false">C28*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K28" s="1" t="n">
+      <c r="K28" s="25" t="n">
         <f aca="false">D28*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L28" s="1" t="n">
+      <c r="L28" s="25" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H28*$B$41</f>
         <v>0</v>
       </c>
-      <c r="M28" s="1" t="n">
+      <c r="M28" s="25" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N28" s="1" t="n">
+      <c r="N28" s="25" t="n">
         <f aca="false">ROUND(SUM(I28:M28),0)</f>
         <v>5</v>
       </c>
@@ -2296,7 +2420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
@@ -2357,50 +2481,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
+    <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="C30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="n">
+      <c r="C30" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17" t="n">
         <f aca="false">ROUND(B30/$B$36*$B$38,0)</f>
         <v>8</v>
       </c>
-      <c r="J30" s="1" t="n">
+      <c r="J30" s="17" t="n">
         <f aca="false">C30*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K30" s="1" t="n">
+      <c r="K30" s="17" t="n">
         <f aca="false">D30*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L30" s="1" t="n">
+      <c r="L30" s="17" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H30*$B$41</f>
         <v>5</v>
       </c>
-      <c r="M30" s="1" t="n">
+      <c r="M30" s="17" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N30" s="1" t="n">
+      <c r="N30" s="17" t="n">
         <f aca="false">ROUND(SUM(I30:M30),0)</f>
         <v>13</v>
       </c>
@@ -2416,7 +2540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
         <v>53</v>
       </c>
@@ -2478,49 +2602,49 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="C32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="n">
+      <c r="C32" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31" t="n">
         <f aca="false">ROUND(B32/$B$36*$B$38,0)</f>
         <v>3</v>
       </c>
-      <c r="J32" s="1" t="n">
+      <c r="J32" s="31" t="n">
         <f aca="false">C32*$B$39</f>
         <v>0</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="K32" s="31" t="n">
         <f aca="false">D32*$B$40</f>
         <v>0</v>
       </c>
-      <c r="L32" s="1" t="n">
+      <c r="L32" s="31" t="n">
         <f aca="false">Таблица3[[#This Row],[Контрольная работа]]*$C$41+Таблица3[[#This Row],[Работа на занятиях]]*$D$41+H32*$B$41</f>
         <v>0</v>
       </c>
-      <c r="M32" s="1" t="n">
+      <c r="M32" s="31" t="n">
         <f aca="false">MAX(Таблица3[[#This Row],[Критерии]]*20,SUM(Таблица3[[#This Row],[Вопрос1]:[Вопрос6]]))</f>
         <v>0</v>
       </c>
-      <c r="N32" s="1" t="n">
+      <c r="N32" s="31" t="n">
         <f aca="false">ROUND(SUM(I32:M32),0)</f>
         <v>3</v>
       </c>
@@ -2617,169 +2741,169 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="18" t="n">
+      <c r="B36" s="35" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="O37" s="20" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="O37" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="P37" s="20"/>
+      <c r="P37" s="37"/>
     </row>
     <row r="38" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="O38" s="24" t="s">
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="O38" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="P38" s="23" t="n">
+      <c r="P38" s="40" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=5")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="22" t="n">
+      <c r="B39" s="39" t="n">
         <v>25</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="O39" s="24" t="s">
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="O39" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="P39" s="23" t="n">
+      <c r="P39" s="40" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=4")</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="22" t="n">
+      <c r="B40" s="39" t="n">
         <v>20</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="O40" s="24" t="s">
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="O40" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="P40" s="23" t="n">
+      <c r="P40" s="40" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=3")</f>
         <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="22" t="n">
+      <c r="B41" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="C41" s="22" t="n">
+      <c r="C41" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="D41" s="22" t="n">
+      <c r="D41" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O41" s="24" t="s">
+      <c r="O41" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="P41" s="23" t="n">
+      <c r="P41" s="40" t="n">
         <f aca="false">COUNTIFS(Таблица3[Оценка],"=2")</f>
         <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="22" t="n">
+      <c r="B42" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="44" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="29" t="n">
+      <c r="B48" s="46" t="n">
         <v>86</v>
       </c>
-      <c r="C48" s="30" t="n">
+      <c r="C48" s="47" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="29" t="n">
+      <c r="B49" s="46" t="n">
         <v>76</v>
       </c>
-      <c r="C49" s="30" t="n">
+      <c r="C49" s="47" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="29" t="n">
+      <c r="B50" s="46" t="n">
         <v>60</v>
       </c>
-      <c r="C50" s="30" t="n">
+      <c r="C50" s="47" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="33" t="n">
+      <c r="B51" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="50" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/БАРС/Баллы_431.xlsx
+++ b/БАРС/Баллы_431.xlsx
@@ -287,6 +287,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -501,7 +502,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,7 +530,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,7 +546,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,7 +570,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -824,16 +825,18 @@
   </sheetPr>
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V22" activeCellId="0" sqref="O22:V22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V22" activeCellId="0" sqref="A22:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="2" style="0" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="14" style="0" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="15" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.78"/>
   </cols>
   <sheetData>
@@ -958,7 +961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
         <v>39</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
         <v>40</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
         <v>41</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
         <v>42</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
         <v>43</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
         <v>44</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
         <v>45</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
         <v>46</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
         <v>47</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" s="29" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="29" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
         <v>48</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
         <v>49</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
         <v>50</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
         <v>54</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>55</v>
       </c>
@@ -2716,6 +2719,10 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
+      <c r="V33" s="1" t="n">
+        <f aca="false">IF(Таблица3[[#This Row],[Итого]]&lt;60,2,IF(Таблица3[[#This Row],[Итого]]&lt;76,3,IF(Таблица3[[#This Row],[Итого]]&lt;86,4,5)))</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1"/>
